--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -418,13 +418,13 @@
         <v>4.863405852462386</v>
       </c>
       <c r="D2">
-        <v>6.12446659542688</v>
+        <v>6.124466595426941</v>
       </c>
       <c r="E2">
         <v>18.59170732665564</v>
       </c>
       <c r="F2">
-        <v>45.72984558007673</v>
+        <v>45.72984558007671</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.392972862306816</v>
+        <v>4.392972862306528</v>
       </c>
       <c r="D3">
-        <v>5.134585654185223</v>
+        <v>5.13458565418529</v>
       </c>
       <c r="E3">
-        <v>16.92947219000266</v>
+        <v>16.92947219000267</v>
       </c>
       <c r="F3">
-        <v>40.24750923845218</v>
+        <v>40.24750923845215</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>31.03344914746537</v>
+        <v>31.03344914746535</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>95.31503939527441</v>
+        <v>95.31503939527423</v>
       </c>
       <c r="K3">
         <v>12.9233205713983</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.113739331637569</v>
+        <v>4.113739331637488</v>
       </c>
       <c r="D4">
-        <v>4.565107523244573</v>
+        <v>4.565107523244829</v>
       </c>
       <c r="E4">
-        <v>15.91673499798889</v>
+        <v>15.91673499798893</v>
       </c>
       <c r="F4">
-        <v>37.08085904792136</v>
+        <v>37.08085904792169</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>28.57029477226739</v>
+        <v>28.57029477226768</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.15186274854868</v>
+        <v>90.15186274854881</v>
       </c>
       <c r="K4">
-        <v>12.1301689875869</v>
+        <v>12.13016898758692</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.00117641619711</v>
+        <v>4.001176416197031</v>
       </c>
       <c r="D5">
-        <v>4.339685708877884</v>
+        <v>4.339685708877949</v>
       </c>
       <c r="E5">
-        <v>15.50284888314232</v>
+        <v>15.50284888314234</v>
       </c>
       <c r="F5">
-        <v>35.82688890857535</v>
+        <v>35.82688890857538</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>27.59177578144955</v>
+        <v>27.59177578144959</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>88.01933019418897</v>
       </c>
       <c r="K5">
-        <v>11.80744859977717</v>
+        <v>11.80744859977715</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.982531857748178</v>
+        <v>3.982531857748185</v>
       </c>
       <c r="D6">
-        <v>4.302587623330596</v>
+        <v>4.302587623330459</v>
       </c>
       <c r="E6">
-        <v>15.43397851892566</v>
+        <v>15.43397851892562</v>
       </c>
       <c r="F6">
-        <v>35.62056886041435</v>
+        <v>35.62056886041439</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>27.43057889756482</v>
+        <v>27.43057889756479</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>87.66324654513997</v>
+        <v>87.66324654514011</v>
       </c>
       <c r="K6">
-        <v>11.7538266712872</v>
+        <v>11.75382667128718</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.112217593082152</v>
+        <v>4.112217593082064</v>
       </c>
       <c r="D7">
-        <v>4.562043698673444</v>
+        <v>4.562043698673379</v>
       </c>
       <c r="E7">
-        <v>15.91116141287556</v>
+        <v>15.91116141287557</v>
       </c>
       <c r="F7">
-        <v>37.06381414178329</v>
+        <v>37.06381414178308</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>28.55700717602629</v>
+        <v>28.55700717602611</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.12323004282257</v>
+        <v>90.12323004282258</v>
       </c>
       <c r="K7">
-        <v>12.12581767119193</v>
+        <v>12.12581767119192</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.698342614454931</v>
+        <v>4.698342614454995</v>
       </c>
       <c r="D8">
-        <v>5.773015729108796</v>
+        <v>5.773015729108661</v>
       </c>
       <c r="E8">
-        <v>18.01462402443076</v>
+        <v>18.0146240244307</v>
       </c>
       <c r="F8">
-        <v>43.78787576617606</v>
+        <v>43.78787576617579</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33.77684387268267</v>
+        <v>33.77684387268245</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100.7568439237347</v>
+        <v>100.7568439237346</v>
       </c>
       <c r="K8">
-        <v>13.77889116130456</v>
+        <v>13.77889116130452</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.017963026694192</v>
+        <v>6.017963026694297</v>
       </c>
       <c r="D9">
-        <v>8.693842024382965</v>
+        <v>8.693842024382828</v>
       </c>
       <c r="E9">
-        <v>22.45686413755496</v>
+        <v>22.45686413755487</v>
       </c>
       <c r="F9">
-        <v>59.71775791328464</v>
+        <v>59.71775791328386</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46.04560316561058</v>
+        <v>46.04560316561</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>121.9119922665429</v>
+        <v>121.9119922665425</v>
       </c>
       <c r="K9">
-        <v>17.3495256101324</v>
+        <v>17.34952561013231</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D10">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E10">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F10">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K10">
         <v>21.09585029300288</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D11">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E11">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F11">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K11">
         <v>21.09585029300288</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D12">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E12">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F12">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K12">
         <v>21.09585029300288</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D13">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E13">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F13">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K13">
         <v>21.09585029300288</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D14">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E14">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F14">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K14">
         <v>21.09585029300288</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D15">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E15">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F15">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K15">
         <v>21.09585029300288</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D16">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E16">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F16">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K16">
         <v>21.09585029300288</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D17">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E17">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F17">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K17">
         <v>21.09585029300288</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D18">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E18">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F18">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K18">
         <v>21.09585029300288</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D19">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E19">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F19">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K19">
         <v>21.09585029300288</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D20">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E20">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F20">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K20">
         <v>21.09585029300288</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D21">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E21">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F21">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K21">
         <v>21.09585029300288</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D22">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E22">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F22">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K22">
         <v>21.09585029300288</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D23">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E23">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F23">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K23">
         <v>21.09585029300288</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D24">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E24">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F24">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K24">
         <v>21.09585029300288</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.461890799604618</v>
+        <v>7.461890799604806</v>
       </c>
       <c r="D25">
-        <v>12.15415543159617</v>
+        <v>12.1541554315963</v>
       </c>
       <c r="E25">
-        <v>26.95470990023444</v>
+        <v>26.95470990023435</v>
       </c>
       <c r="F25">
-        <v>77.89811611540583</v>
+        <v>77.89811611540604</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59.99013412523333</v>
+        <v>59.99013412523351</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>140.9667013182544</v>
+        <v>140.9667013182545</v>
       </c>
       <c r="K25">
         <v>21.09585029300288</v>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -418,13 +418,13 @@
         <v>4.863405852462386</v>
       </c>
       <c r="D2">
-        <v>6.124466595426941</v>
+        <v>6.12446659542688</v>
       </c>
       <c r="E2">
         <v>18.59170732665564</v>
       </c>
       <c r="F2">
-        <v>45.72984558007671</v>
+        <v>45.72984558007673</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.392972862306528</v>
+        <v>4.392972862306816</v>
       </c>
       <c r="D3">
-        <v>5.13458565418529</v>
+        <v>5.134585654185223</v>
       </c>
       <c r="E3">
-        <v>16.92947219000267</v>
+        <v>16.92947219000266</v>
       </c>
       <c r="F3">
-        <v>40.24750923845215</v>
+        <v>40.24750923845218</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>31.03344914746535</v>
+        <v>31.03344914746537</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>95.31503939527423</v>
+        <v>95.31503939527441</v>
       </c>
       <c r="K3">
         <v>12.9233205713983</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.113739331637488</v>
+        <v>4.113739331637569</v>
       </c>
       <c r="D4">
-        <v>4.565107523244829</v>
+        <v>4.565107523244573</v>
       </c>
       <c r="E4">
-        <v>15.91673499798893</v>
+        <v>15.91673499798889</v>
       </c>
       <c r="F4">
-        <v>37.08085904792169</v>
+        <v>37.08085904792136</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>28.57029477226768</v>
+        <v>28.57029477226739</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>90.15186274854881</v>
+        <v>90.15186274854868</v>
       </c>
       <c r="K4">
-        <v>12.13016898758692</v>
+        <v>12.1301689875869</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.001176416197031</v>
+        <v>4.00117641619711</v>
       </c>
       <c r="D5">
-        <v>4.339685708877949</v>
+        <v>4.339685708877884</v>
       </c>
       <c r="E5">
-        <v>15.50284888314234</v>
+        <v>15.50284888314232</v>
       </c>
       <c r="F5">
-        <v>35.82688890857538</v>
+        <v>35.82688890857535</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>27.59177578144959</v>
+        <v>27.59177578144955</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>88.01933019418897</v>
       </c>
       <c r="K5">
-        <v>11.80744859977715</v>
+        <v>11.80744859977717</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.982531857748185</v>
+        <v>3.982531857748178</v>
       </c>
       <c r="D6">
-        <v>4.302587623330459</v>
+        <v>4.302587623330596</v>
       </c>
       <c r="E6">
-        <v>15.43397851892562</v>
+        <v>15.43397851892566</v>
       </c>
       <c r="F6">
-        <v>35.62056886041439</v>
+        <v>35.62056886041435</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>27.43057889756479</v>
+        <v>27.43057889756482</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>87.66324654514011</v>
+        <v>87.66324654513997</v>
       </c>
       <c r="K6">
-        <v>11.75382667128718</v>
+        <v>11.7538266712872</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.112217593082064</v>
+        <v>4.112217593082152</v>
       </c>
       <c r="D7">
-        <v>4.562043698673379</v>
+        <v>4.562043698673444</v>
       </c>
       <c r="E7">
-        <v>15.91116141287557</v>
+        <v>15.91116141287556</v>
       </c>
       <c r="F7">
-        <v>37.06381414178308</v>
+        <v>37.06381414178329</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>28.55700717602611</v>
+        <v>28.55700717602629</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>90.12323004282258</v>
+        <v>90.12323004282257</v>
       </c>
       <c r="K7">
-        <v>12.12581767119192</v>
+        <v>12.12581767119193</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.698342614454995</v>
+        <v>4.698342614454931</v>
       </c>
       <c r="D8">
-        <v>5.773015729108661</v>
+        <v>5.773015729108796</v>
       </c>
       <c r="E8">
-        <v>18.0146240244307</v>
+        <v>18.01462402443076</v>
       </c>
       <c r="F8">
-        <v>43.78787576617579</v>
+        <v>43.78787576617606</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33.77684387268245</v>
+        <v>33.77684387268267</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>100.7568439237346</v>
+        <v>100.7568439237347</v>
       </c>
       <c r="K8">
-        <v>13.77889116130452</v>
+        <v>13.77889116130456</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.017963026694297</v>
+        <v>6.017963026694192</v>
       </c>
       <c r="D9">
-        <v>8.693842024382828</v>
+        <v>8.693842024382965</v>
       </c>
       <c r="E9">
-        <v>22.45686413755487</v>
+        <v>22.45686413755496</v>
       </c>
       <c r="F9">
-        <v>59.71775791328386</v>
+        <v>59.71775791328464</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46.04560316561</v>
+        <v>46.04560316561058</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>121.9119922665425</v>
+        <v>121.9119922665429</v>
       </c>
       <c r="K9">
-        <v>17.34952561013231</v>
+        <v>17.3495256101324</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,28 +719,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D10">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E10">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F10">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K10">
         <v>21.09585029300288</v>
@@ -757,28 +757,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D11">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E11">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F11">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K11">
         <v>21.09585029300288</v>
@@ -795,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D12">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E12">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F12">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K12">
         <v>21.09585029300288</v>
@@ -833,28 +833,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D13">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E13">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F13">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K13">
         <v>21.09585029300288</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D14">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E14">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F14">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K14">
         <v>21.09585029300288</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D15">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E15">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F15">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K15">
         <v>21.09585029300288</v>
@@ -947,28 +947,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D16">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E16">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F16">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K16">
         <v>21.09585029300288</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D17">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E17">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F17">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K17">
         <v>21.09585029300288</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D18">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E18">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F18">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K18">
         <v>21.09585029300288</v>
@@ -1061,28 +1061,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D19">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E19">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F19">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K19">
         <v>21.09585029300288</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D20">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E20">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F20">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K20">
         <v>21.09585029300288</v>
@@ -1137,28 +1137,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D21">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E21">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F21">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K21">
         <v>21.09585029300288</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D22">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E22">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F22">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K22">
         <v>21.09585029300288</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D23">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E23">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F23">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K23">
         <v>21.09585029300288</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D24">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E24">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F24">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K24">
         <v>21.09585029300288</v>
@@ -1289,28 +1289,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.461890799604806</v>
+        <v>7.461890799604618</v>
       </c>
       <c r="D25">
-        <v>12.1541554315963</v>
+        <v>12.15415543159617</v>
       </c>
       <c r="E25">
-        <v>26.95470990023435</v>
+        <v>26.95470990023444</v>
       </c>
       <c r="F25">
-        <v>77.89811611540604</v>
+        <v>77.89811611540583</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59.99013412523351</v>
+        <v>59.99013412523333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>140.9667013182545</v>
+        <v>140.9667013182544</v>
       </c>
       <c r="K25">
         <v>21.09585029300288</v>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.863405852462386</v>
+        <v>4.742772508892585</v>
       </c>
       <c r="D2">
-        <v>6.12446659542688</v>
+        <v>5.905643813602008</v>
       </c>
       <c r="E2">
-        <v>18.59170732665564</v>
+        <v>18.51648191465478</v>
       </c>
       <c r="F2">
-        <v>45.72984558007673</v>
+        <v>45.14108264124383</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.858514412881377</v>
       </c>
       <c r="H2">
-        <v>35.2780505306458</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>34.80761226099497</v>
       </c>
       <c r="J2">
-        <v>103.6106194321135</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.23638734394516</v>
+        <v>103.2804028529421</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>14.161598286618</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.392972862306816</v>
+        <v>4.276867008761995</v>
       </c>
       <c r="D3">
-        <v>5.134585654185223</v>
+        <v>4.9248712929737</v>
       </c>
       <c r="E3">
-        <v>16.92947219000266</v>
+        <v>16.86637916276264</v>
       </c>
       <c r="F3">
-        <v>40.24750923845218</v>
+        <v>39.75988543438812</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.899545455360637</v>
       </c>
       <c r="H3">
-        <v>31.03344914746537</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30.6348902907349</v>
       </c>
       <c r="J3">
-        <v>95.31503939527441</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.9233205713983</v>
+        <v>95.02827129812333</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.85917105188984</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.113739331637569</v>
+        <v>4.000143045154909</v>
       </c>
       <c r="D4">
-        <v>4.565107523244573</v>
+        <v>4.360419757184029</v>
       </c>
       <c r="E4">
-        <v>15.91673499798889</v>
+        <v>15.85998567076752</v>
       </c>
       <c r="F4">
-        <v>37.08085904792136</v>
+        <v>36.65672996259593</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.923415048945367</v>
       </c>
       <c r="H4">
-        <v>28.57029477226739</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.21625118725982</v>
       </c>
       <c r="J4">
-        <v>90.15186274854868</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>12.1301689875869</v>
+        <v>89.88850272959948</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.0715539069589</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.00117641619711</v>
+        <v>3.888563077434354</v>
       </c>
       <c r="D5">
-        <v>4.339685708877884</v>
+        <v>4.137015640771562</v>
       </c>
       <c r="E5">
-        <v>15.50284888314232</v>
+        <v>15.44850872343605</v>
       </c>
       <c r="F5">
-        <v>35.82688890857535</v>
+        <v>35.42960231513538</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.932923991037674</v>
       </c>
       <c r="H5">
-        <v>27.59177578144955</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.25643398625084</v>
       </c>
       <c r="J5">
-        <v>88.01933019418897</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.80744859977717</v>
+        <v>87.76501128017466</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.75092880407697</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.982531857748178</v>
+        <v>3.8700798887545</v>
       </c>
       <c r="D6">
-        <v>4.302587623330596</v>
+        <v>4.1002534705539</v>
       </c>
       <c r="E6">
-        <v>15.43397851892566</v>
+        <v>15.38002990322725</v>
       </c>
       <c r="F6">
-        <v>35.62056886041435</v>
+        <v>35.22781241382863</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.934492428382653</v>
       </c>
       <c r="H6">
-        <v>27.43057889756482</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.09838743468275</v>
       </c>
       <c r="J6">
-        <v>87.66324654513997</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.7538266712872</v>
+        <v>87.41040567405433</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.69764702776908</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.112217593082152</v>
+        <v>3.998634697398872</v>
       </c>
       <c r="D7">
-        <v>4.562043698673444</v>
+        <v>4.357383142653489</v>
       </c>
       <c r="E7">
-        <v>15.91116141287556</v>
+        <v>15.85444518803727</v>
       </c>
       <c r="F7">
-        <v>37.06381414178329</v>
+        <v>36.64004247019618</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.923544048810475</v>
       </c>
       <c r="H7">
-        <v>28.55700717602629</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.20321302591611</v>
       </c>
       <c r="J7">
-        <v>90.12323004282257</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12.12581767119193</v>
+        <v>89.85999364768838</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.06723140643206</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.698342614454931</v>
+        <v>4.579349428615549</v>
       </c>
       <c r="D8">
-        <v>5.773015729108796</v>
+        <v>5.557531667626963</v>
       </c>
       <c r="E8">
-        <v>18.01462402443076</v>
+        <v>17.94389143271481</v>
       </c>
       <c r="F8">
-        <v>43.78787576617606</v>
+        <v>43.23414609863046</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.873019926921788</v>
       </c>
       <c r="H8">
-        <v>33.77684387268267</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.33144992548737</v>
       </c>
       <c r="J8">
-        <v>100.7568439237347</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>13.77889116130456</v>
+        <v>100.4425395866764</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.70804920827483</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.017963026694192</v>
+        <v>5.882969525414649</v>
       </c>
       <c r="D9">
-        <v>8.693842024382965</v>
+        <v>8.442578937853982</v>
       </c>
       <c r="E9">
-        <v>22.45686413755496</v>
+        <v>22.3390947002885</v>
       </c>
       <c r="F9">
-        <v>59.71775791328464</v>
+        <v>58.86556736882468</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.754357434864282</v>
       </c>
       <c r="H9">
-        <v>46.04560316561058</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>45.38214721970756</v>
       </c>
       <c r="J9">
-        <v>121.9119922665429</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.3495256101324</v>
+        <v>121.4380900335048</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.2371241374612</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D10">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E10">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F10">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H10">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J10">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D11">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E11">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F11">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H11">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J11">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D12">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E12">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F12">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H12">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J12">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D13">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E13">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F13">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H13">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J13">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D14">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E14">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F14">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H14">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J14">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D15">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E15">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F15">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H15">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J15">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D16">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E16">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F16">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H16">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J16">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D17">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E17">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F17">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H17">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J17">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D18">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E18">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F18">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H18">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J18">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D19">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E19">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F19">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H19">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J19">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D20">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E20">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F20">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H20">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J20">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D21">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E21">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F21">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H21">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J21">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D22">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E22">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F22">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H22">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J22">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D23">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E23">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F23">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H23">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J23">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D24">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E24">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F24">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H24">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J24">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.461890799604618</v>
+        <v>7.285970864618893</v>
       </c>
       <c r="D25">
-        <v>12.15415543159617</v>
+        <v>11.79488947855974</v>
       </c>
       <c r="E25">
-        <v>26.95470990023444</v>
+        <v>26.70933067402077</v>
       </c>
       <c r="F25">
-        <v>77.89811611540583</v>
+        <v>76.42772311586904</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.620086403110938</v>
       </c>
       <c r="H25">
-        <v>59.99013412523333</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>58.85814326187011</v>
       </c>
       <c r="J25">
-        <v>140.9667013182544</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.09585029300288</v>
+        <v>140.0942446680197</v>
       </c>
       <c r="L25">
+        <v>20.87001243939933</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.742772508892585</v>
+        <v>7.995876305082179</v>
       </c>
       <c r="D2">
-        <v>5.905643813602008</v>
+        <v>10.9768782799209</v>
       </c>
       <c r="E2">
-        <v>18.51648191465478</v>
+        <v>9.357012066803975</v>
       </c>
       <c r="F2">
-        <v>45.14108264124383</v>
+        <v>73.86504032971693</v>
       </c>
       <c r="G2">
-        <v>1.858514412881377</v>
+        <v>1.866880613846472</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.80761226099497</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>103.2804028529421</v>
+        <v>63.58377365867253</v>
       </c>
       <c r="L2">
-        <v>14.161598286618</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>39.10881293187965</v>
+      </c>
+      <c r="N2">
+        <v>9.110999757008393</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.276867008761995</v>
+        <v>7.295271183916483</v>
       </c>
       <c r="D3">
-        <v>4.9248712929737</v>
+        <v>9.917492830094886</v>
       </c>
       <c r="E3">
-        <v>16.86637916276264</v>
+        <v>8.717142443944349</v>
       </c>
       <c r="F3">
-        <v>39.75988543438812</v>
+        <v>67.23809423292555</v>
       </c>
       <c r="G3">
-        <v>1.899545455360637</v>
+        <v>1.907669338290258</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.6348902907349</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>95.02827129812333</v>
+        <v>58.13820068206275</v>
       </c>
       <c r="L3">
-        <v>12.85917105188984</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.76518861052872</v>
+      </c>
+      <c r="N3">
+        <v>9.728461479032353</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.000143045154909</v>
+        <v>6.865515516394203</v>
       </c>
       <c r="D4">
-        <v>4.360419757184029</v>
+        <v>9.298598927162786</v>
       </c>
       <c r="E4">
-        <v>15.85998567076752</v>
+        <v>8.329450936011375</v>
       </c>
       <c r="F4">
-        <v>36.65672996259593</v>
+        <v>63.24129819650133</v>
       </c>
       <c r="G4">
-        <v>1.923415048945367</v>
+        <v>1.931617514164393</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.21625118725982</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>89.88850272959948</v>
+        <v>54.78038279198812</v>
       </c>
       <c r="L4">
-        <v>12.0715539069589</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.7024253412109</v>
+      </c>
+      <c r="N4">
+        <v>10.08880602975024</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.888563077434354</v>
+        <v>6.689383799468132</v>
       </c>
       <c r="D5">
-        <v>4.137015640771562</v>
+        <v>9.088115352068725</v>
       </c>
       <c r="E5">
-        <v>15.44850872343605</v>
+        <v>8.171634104417034</v>
       </c>
       <c r="F5">
-        <v>35.42960231513538</v>
+        <v>61.61962865416285</v>
       </c>
       <c r="G5">
-        <v>1.932923991037674</v>
+        <v>1.941201021201153</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.25643398625084</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>87.76501128017466</v>
+        <v>53.40055121333883</v>
       </c>
       <c r="L5">
-        <v>11.75092880407697</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32.85456477912238</v>
+      </c>
+      <c r="N5">
+        <v>10.23239504037377</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.8700798887545</v>
+        <v>6.660050558493159</v>
       </c>
       <c r="D6">
-        <v>4.1002534705539</v>
+        <v>9.053437770760034</v>
       </c>
       <c r="E6">
-        <v>15.38002990322725</v>
+        <v>8.145413630841778</v>
       </c>
       <c r="F6">
-        <v>35.22781241382863</v>
+        <v>61.35052462720497</v>
       </c>
       <c r="G6">
-        <v>1.934492428382653</v>
+        <v>1.942784103258278</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.09838743468275</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>87.41040567405433</v>
+        <v>53.17055082641032</v>
       </c>
       <c r="L6">
-        <v>11.69764702776908</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.71322559507391</v>
+      </c>
+      <c r="N6">
+        <v>10.25607592994226</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.998634697398872</v>
+        <v>6.863145420958057</v>
       </c>
       <c r="D7">
-        <v>4.357383142653489</v>
+        <v>9.295741163513197</v>
       </c>
       <c r="E7">
-        <v>15.85444518803727</v>
+        <v>8.32732306657469</v>
       </c>
       <c r="F7">
-        <v>36.64004247019618</v>
+        <v>63.21941109208956</v>
       </c>
       <c r="G7">
-        <v>1.923544048810475</v>
+        <v>1.93174736188699</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.20321302591611</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>89.85999364768838</v>
+        <v>54.76182912180199</v>
       </c>
       <c r="L7">
-        <v>12.06723140643206</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.69102551949354</v>
+      </c>
+      <c r="N7">
+        <v>10.09075408535446</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.579349428615549</v>
+        <v>7.753427289278017</v>
       </c>
       <c r="D8">
-        <v>5.557531667626963</v>
+        <v>10.60716999269192</v>
       </c>
       <c r="E8">
-        <v>17.94389143271481</v>
+        <v>9.134467581651954</v>
       </c>
       <c r="F8">
-        <v>43.23414609863046</v>
+        <v>71.55699700125444</v>
       </c>
       <c r="G8">
-        <v>1.873019926921788</v>
+        <v>1.881243952602552</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.33144992548737</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>100.4425395866764</v>
+        <v>61.70340847560487</v>
       </c>
       <c r="L8">
-        <v>13.70804920827483</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.95451442838911</v>
+      </c>
+      <c r="N8">
+        <v>9.328849672815272</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.882969525414649</v>
+        <v>9.586021495729344</v>
       </c>
       <c r="D9">
-        <v>8.442578937853982</v>
+        <v>13.48365182410356</v>
       </c>
       <c r="E9">
-        <v>22.3390947002885</v>
+        <v>10.85169419275705</v>
       </c>
       <c r="F9">
-        <v>58.86556736882468</v>
+        <v>89.34861259879587</v>
       </c>
       <c r="G9">
-        <v>1.754357434864282</v>
+        <v>1.765923993759079</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>45.38214721970756</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>121.4380900335048</v>
+        <v>75.80217620875629</v>
       </c>
       <c r="L9">
-        <v>17.2371241374612</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>46.59918450451534</v>
+      </c>
+      <c r="N9">
+        <v>7.575284430061334</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.285970864618893</v>
+        <v>11.26519863967366</v>
       </c>
       <c r="D10">
-        <v>11.79488947855974</v>
+        <v>16.29489498723452</v>
       </c>
       <c r="E10">
-        <v>26.70933067402077</v>
+        <v>12.53901188615739</v>
       </c>
       <c r="F10">
-        <v>76.42772311586904</v>
+        <v>106.2768689782578</v>
       </c>
       <c r="G10">
-        <v>1.620086403110938</v>
+        <v>1.645684985908669</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>140.0942446680197</v>
+        <v>88.47681819050504</v>
       </c>
       <c r="L10">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>54.33139230047303</v>
+      </c>
+      <c r="N10">
+        <v>5.759882608425988</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.285970864618893</v>
+        <v>12.4333429915923</v>
       </c>
       <c r="D11">
-        <v>11.79488947855974</v>
+        <v>18.36601982789953</v>
       </c>
       <c r="E11">
-        <v>26.70933067402077</v>
+        <v>13.84706389112599</v>
       </c>
       <c r="F11">
-        <v>76.42772311586904</v>
+        <v>118.3728701204084</v>
       </c>
       <c r="G11">
-        <v>1.620086403110938</v>
+        <v>1.552797124710541</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>140.0942446680197</v>
+        <v>97.15430806597929</v>
       </c>
       <c r="L11">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>59.57475902585057</v>
+      </c>
+      <c r="N11">
+        <v>4.698056063305959</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.285970864618893</v>
+        <v>13.3504381430061</v>
       </c>
       <c r="D12">
-        <v>11.79488947855974</v>
+        <v>20.07438298326976</v>
       </c>
       <c r="E12">
-        <v>26.70933067402077</v>
+        <v>15.01987549410074</v>
       </c>
       <c r="F12">
-        <v>76.42772311586904</v>
+        <v>128.0513593458325</v>
       </c>
       <c r="G12">
-        <v>1.620086403110938</v>
+        <v>1.473791862265271</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>140.0942446680197</v>
+        <v>103.8941696856861</v>
       </c>
       <c r="L12">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>63.59175137959776</v>
+      </c>
+      <c r="N12">
+        <v>5.765736891116678</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.285970864618893</v>
+        <v>13.04543184150949</v>
       </c>
       <c r="D13">
-        <v>11.79488947855974</v>
+        <v>19.4970019357704</v>
       </c>
       <c r="E13">
-        <v>26.70933067402077</v>
+        <v>14.61057020525513</v>
       </c>
       <c r="F13">
-        <v>76.42772311586904</v>
+        <v>124.8142298204926</v>
       </c>
       <c r="G13">
-        <v>1.620086403110938</v>
+        <v>1.500711515352057</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>140.0942446680197</v>
+        <v>101.6588862091728</v>
       </c>
       <c r="L13">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>62.2668743583987</v>
+      </c>
+      <c r="N13">
+        <v>5.404325318777614</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.285970864618893</v>
+        <v>12.48425507507363</v>
       </c>
       <c r="D14">
-        <v>11.79488947855974</v>
+        <v>18.45878624025362</v>
       </c>
       <c r="E14">
-        <v>26.70933067402077</v>
+        <v>13.90806528205537</v>
       </c>
       <c r="F14">
-        <v>76.42772311586904</v>
+        <v>118.905910058086</v>
       </c>
       <c r="G14">
-        <v>1.620086403110938</v>
+        <v>1.548559006796639</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>140.0942446680197</v>
+        <v>97.5300275262554</v>
       </c>
       <c r="L14">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>59.80026399104859</v>
+      </c>
+      <c r="N14">
+        <v>4.755811297054112</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.285970864618893</v>
+        <v>12.23526563269471</v>
       </c>
       <c r="D15">
-        <v>11.79488947855974</v>
+        <v>18.0072193482748</v>
       </c>
       <c r="E15">
-        <v>26.70933067402077</v>
+        <v>13.6134594071319</v>
       </c>
       <c r="F15">
-        <v>76.42772311586904</v>
+        <v>116.3037049891744</v>
       </c>
       <c r="G15">
-        <v>1.620086403110938</v>
+        <v>1.569129209961324</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>140.0942446680197</v>
+        <v>95.69064849515246</v>
       </c>
       <c r="L15">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>58.69485004889743</v>
+      </c>
+      <c r="N15">
+        <v>4.624777469754143</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.285970864618893</v>
+        <v>11.20468120329477</v>
       </c>
       <c r="D16">
-        <v>11.79488947855974</v>
+        <v>16.1903699838647</v>
       </c>
       <c r="E16">
-        <v>26.70933067402077</v>
+        <v>12.47507226271571</v>
       </c>
       <c r="F16">
-        <v>76.42772311586904</v>
+        <v>105.6572349015734</v>
       </c>
       <c r="G16">
-        <v>1.620086403110938</v>
+        <v>1.650280389863527</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>140.0942446680197</v>
+        <v>88.02418871850655</v>
       </c>
       <c r="L16">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>54.05642936304127</v>
+      </c>
+      <c r="N16">
+        <v>5.828639590353816</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.285970864618893</v>
+        <v>10.71385574520014</v>
       </c>
       <c r="D17">
-        <v>11.79488947855974</v>
+        <v>15.35186549911466</v>
       </c>
       <c r="E17">
-        <v>26.70933067402077</v>
+        <v>11.96675912685266</v>
       </c>
       <c r="F17">
-        <v>76.42772311586904</v>
+        <v>100.6575806598774</v>
       </c>
       <c r="G17">
-        <v>1.620086403110938</v>
+        <v>1.686805454262412</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>140.0942446680197</v>
+        <v>84.34165194782668</v>
       </c>
       <c r="L17">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>51.81548158800796</v>
+      </c>
+      <c r="N17">
+        <v>6.377213339708339</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.285970864618893</v>
+        <v>10.45576252834122</v>
       </c>
       <c r="D18">
-        <v>11.79488947855974</v>
+        <v>14.91733573780454</v>
       </c>
       <c r="E18">
-        <v>26.70933067402077</v>
+        <v>11.70587529770732</v>
       </c>
       <c r="F18">
-        <v>76.42772311586904</v>
+        <v>98.04727781914626</v>
       </c>
       <c r="G18">
-        <v>1.620086403110938</v>
+        <v>1.705490954171375</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>140.0942446680197</v>
+        <v>82.39700930622639</v>
       </c>
       <c r="L18">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>50.62969634037052</v>
+      </c>
+      <c r="N18">
+        <v>6.65912681736855</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.285970864618893</v>
+        <v>10.37141510792952</v>
       </c>
       <c r="D19">
-        <v>11.79488947855974</v>
+        <v>14.77625156252748</v>
       </c>
       <c r="E19">
-        <v>26.70933067402077</v>
+        <v>11.62144650979996</v>
       </c>
       <c r="F19">
-        <v>76.42772311586904</v>
+        <v>97.19703603399363</v>
       </c>
       <c r="G19">
-        <v>1.620086403110938</v>
+        <v>1.711521485922947</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>140.0942446680197</v>
+        <v>81.76024986185789</v>
       </c>
       <c r="L19">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>50.24111105037008</v>
+      </c>
+      <c r="N19">
+        <v>6.750271209617553</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.285970864618893</v>
+        <v>10.76328905616549</v>
       </c>
       <c r="D20">
-        <v>11.79488947855974</v>
+        <v>15.43558567426889</v>
       </c>
       <c r="E20">
-        <v>26.70933067402077</v>
+        <v>12.01719351191086</v>
       </c>
       <c r="F20">
-        <v>76.42772311586904</v>
+        <v>101.1590190774349</v>
       </c>
       <c r="G20">
-        <v>1.620086403110938</v>
+        <v>1.683186116687001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>140.0942446680197</v>
+        <v>84.7134665250577</v>
       </c>
       <c r="L20">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>52.04202923030756</v>
+      </c>
+      <c r="N20">
+        <v>6.322700195001706</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.285970864618893</v>
+        <v>12.62113838544579</v>
       </c>
       <c r="D21">
-        <v>11.79488947855974</v>
+        <v>18.70933442403967</v>
       </c>
       <c r="E21">
-        <v>26.70933067402077</v>
+        <v>14.07415600074899</v>
       </c>
       <c r="F21">
-        <v>76.42772311586904</v>
+        <v>120.3414964195415</v>
       </c>
       <c r="G21">
-        <v>1.620086403110938</v>
+        <v>1.537081252998253</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>140.0942446680197</v>
+        <v>98.53922958602553</v>
       </c>
       <c r="L21">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>60.40518564194733</v>
+      </c>
+      <c r="N21">
+        <v>4.911996944392943</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.285970864618893</v>
+        <v>12.62113838544579</v>
       </c>
       <c r="D22">
-        <v>11.79488947855974</v>
+        <v>18.70933442403967</v>
       </c>
       <c r="E22">
-        <v>26.70933067402077</v>
+        <v>14.07415600074899</v>
       </c>
       <c r="F22">
-        <v>76.42772311586904</v>
+        <v>120.3414964195415</v>
       </c>
       <c r="G22">
-        <v>1.620086403110938</v>
+        <v>1.537081252998253</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>140.0942446680197</v>
+        <v>98.53922958602553</v>
       </c>
       <c r="L22">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60.40518564194733</v>
+      </c>
+      <c r="N22">
+        <v>4.911996944392943</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.285970864618893</v>
+        <v>12.62113838544579</v>
       </c>
       <c r="D23">
-        <v>11.79488947855974</v>
+        <v>18.70933442403967</v>
       </c>
       <c r="E23">
-        <v>26.70933067402077</v>
+        <v>14.07415600074899</v>
       </c>
       <c r="F23">
-        <v>76.42772311586904</v>
+        <v>120.3414964195415</v>
       </c>
       <c r="G23">
-        <v>1.620086403110938</v>
+        <v>1.537081252998253</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>140.0942446680197</v>
+        <v>98.53922958602553</v>
       </c>
       <c r="L23">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>60.40518564194733</v>
+      </c>
+      <c r="N23">
+        <v>4.911996944392943</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.285970864618893</v>
+        <v>16.19794459168632</v>
       </c>
       <c r="D24">
-        <v>11.79488947855974</v>
+        <v>26.28245986343846</v>
       </c>
       <c r="E24">
-        <v>26.70933067402077</v>
+        <v>21.1607963734619</v>
       </c>
       <c r="F24">
-        <v>76.42772311586904</v>
+        <v>159.6345313644069</v>
       </c>
       <c r="G24">
-        <v>1.620086403110938</v>
+        <v>1.177405505677128</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>140.0942446680197</v>
+        <v>124.8845729393336</v>
       </c>
       <c r="L24">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>75.15912202818876</v>
+      </c>
+      <c r="N24">
+        <v>9.482904186910009</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.285970864618893</v>
+        <v>17.03454141639131</v>
       </c>
       <c r="D25">
-        <v>11.79488947855974</v>
+        <v>29.28316481340374</v>
       </c>
       <c r="E25">
-        <v>26.70933067402077</v>
+        <v>26.36373919536355</v>
       </c>
       <c r="F25">
-        <v>76.42772311586904</v>
+        <v>171.2254414174682</v>
       </c>
       <c r="G25">
-        <v>1.620086403110938</v>
+        <v>1.041420130671679</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>58.85814326187011</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>140.0942446680197</v>
+        <v>132.403681708098</v>
       </c>
       <c r="L25">
-        <v>20.87001243939933</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>78.09632476637405</v>
+      </c>
+      <c r="N25">
+        <v>10.94517489062984</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.995876305082179</v>
+        <v>8.057433340741364</v>
       </c>
       <c r="D2">
-        <v>10.9768782799209</v>
+        <v>3.799321497110397</v>
       </c>
       <c r="E2">
-        <v>9.357012066803975</v>
+        <v>10.04081045463425</v>
       </c>
       <c r="F2">
-        <v>73.86504032971693</v>
+        <v>24.8977778626911</v>
       </c>
       <c r="G2">
-        <v>1.866880613846472</v>
+        <v>35.13555516250332</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.98296835419016</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.51627257493681</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>63.58377365867253</v>
+        <v>21.91518197432211</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.339291906025705</v>
       </c>
       <c r="M2">
-        <v>39.10881293187965</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.110999757008393</v>
+        <v>11.81577370606919</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.295271183916483</v>
+        <v>7.663066813339641</v>
       </c>
       <c r="D3">
-        <v>9.917492830094886</v>
+        <v>3.83056825160574</v>
       </c>
       <c r="E3">
-        <v>8.717142443944349</v>
+        <v>9.614404347123562</v>
       </c>
       <c r="F3">
-        <v>67.23809423292555</v>
+        <v>23.98480057733765</v>
       </c>
       <c r="G3">
-        <v>1.907669338290258</v>
+        <v>33.66129805631574</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.8526275206596</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.93576861091285</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>58.13820068206275</v>
+        <v>20.41950177542074</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.197314792591498</v>
       </c>
       <c r="M3">
-        <v>35.76518861052872</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.728461479032353</v>
+        <v>12.00429533542673</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.865515516394203</v>
+        <v>7.414772355952037</v>
       </c>
       <c r="D4">
-        <v>9.298598927162786</v>
+        <v>3.850238606597495</v>
       </c>
       <c r="E4">
-        <v>8.329450936011375</v>
+        <v>9.350076471615733</v>
       </c>
       <c r="F4">
-        <v>63.24129819650133</v>
+        <v>23.43775433916533</v>
       </c>
       <c r="G4">
-        <v>1.931617514164393</v>
+        <v>32.77397195057582</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.78341346474755</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.59479395279466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>54.78038279198812</v>
+        <v>19.44912304276458</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.112904344853427</v>
       </c>
       <c r="M4">
-        <v>33.7024253412109</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>10.08880602975024</v>
+        <v>12.12341751092737</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.689383799468132</v>
+        <v>7.312164134157909</v>
       </c>
       <c r="D5">
-        <v>9.088115352068725</v>
+        <v>3.858379181529344</v>
       </c>
       <c r="E5">
-        <v>8.171634104417034</v>
+        <v>9.24186747203715</v>
       </c>
       <c r="F5">
-        <v>61.61962865416285</v>
+        <v>23.21844993331806</v>
       </c>
       <c r="G5">
-        <v>1.941201021201153</v>
+        <v>32.41727773785307</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.75783702201505</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.45978652935764</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>53.40055121333883</v>
+        <v>19.04049043838491</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.07921906005467</v>
       </c>
       <c r="M5">
-        <v>32.85456477912238</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>10.23239504037377</v>
+        <v>12.17281424771329</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.660050558493159</v>
+        <v>7.295043927360156</v>
       </c>
       <c r="D6">
-        <v>9.053437770760034</v>
+        <v>3.859738539036595</v>
       </c>
       <c r="E6">
-        <v>8.145413630841778</v>
+        <v>9.223874070440806</v>
       </c>
       <c r="F6">
-        <v>61.35052462720497</v>
+        <v>23.18225992299524</v>
       </c>
       <c r="G6">
-        <v>1.942784103258278</v>
+        <v>32.35835714479256</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.75374609088112</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.43760823117014</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>53.17055082641032</v>
+        <v>18.97183710853085</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.073669192345439</v>
       </c>
       <c r="M6">
-        <v>32.71322559507391</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>10.25607592994226</v>
+        <v>12.18106828872219</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.863145420958057</v>
+        <v>7.413394144958444</v>
       </c>
       <c r="D7">
-        <v>9.295741163513197</v>
+        <v>3.850347884235332</v>
       </c>
       <c r="E7">
-        <v>8.32732306657469</v>
+        <v>9.348618927551552</v>
       </c>
       <c r="F7">
-        <v>63.21941109208956</v>
+        <v>23.434781762762</v>
       </c>
       <c r="G7">
-        <v>1.93174736188699</v>
+        <v>32.76914105869609</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.78305801165658</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.59295716458983</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>54.76182912180199</v>
+        <v>19.44366565520354</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.112447144817758</v>
       </c>
       <c r="M7">
-        <v>33.69102551949354</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>10.09075408535446</v>
+        <v>12.12408022781855</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.753427289278017</v>
+        <v>7.922798381842417</v>
       </c>
       <c r="D8">
-        <v>10.60716999269192</v>
+        <v>3.809996439259637</v>
       </c>
       <c r="E8">
-        <v>9.134467581651954</v>
+        <v>9.894384448262977</v>
       </c>
       <c r="F8">
-        <v>71.55699700125444</v>
+        <v>24.58030442914202</v>
       </c>
       <c r="G8">
-        <v>1.881243952602552</v>
+        <v>34.62375298910387</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.93572896079671</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.31294188793145</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>61.70340847560487</v>
+        <v>21.41019953990678</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.289775085750174</v>
       </c>
       <c r="M8">
-        <v>37.95451442838911</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>9.328849672815272</v>
+        <v>11.88008019049964</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.586021495729344</v>
+        <v>8.868704081630625</v>
       </c>
       <c r="D9">
-        <v>13.48365182410356</v>
+        <v>3.734595476298654</v>
       </c>
       <c r="E9">
-        <v>10.85169419275705</v>
+        <v>10.93961337144021</v>
       </c>
       <c r="F9">
-        <v>89.34861259879587</v>
+        <v>26.92523893935081</v>
       </c>
       <c r="G9">
-        <v>1.765923993759079</v>
+        <v>38.38701054671181</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.32474616579104</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21.84493995561771</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.80217620875629</v>
+        <v>24.85913799240874</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.658707491277199</v>
       </c>
       <c r="M9">
-        <v>46.59918450451534</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>7.575284430061334</v>
+        <v>11.42809909031082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.26519863967366</v>
+        <v>9.527093805811058</v>
       </c>
       <c r="D10">
-        <v>16.29489498723452</v>
+        <v>3.681330266842282</v>
       </c>
       <c r="E10">
-        <v>12.53901188615739</v>
+        <v>11.68697672745486</v>
       </c>
       <c r="F10">
-        <v>106.2768689782578</v>
+        <v>28.69855472866245</v>
       </c>
       <c r="G10">
-        <v>1.645684985908669</v>
+        <v>41.21271024381505</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.67012703034924</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>23.04079170725883</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>88.47681819050504</v>
+        <v>27.15256605511271</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.941836313597325</v>
       </c>
       <c r="M10">
-        <v>54.33139230047303</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5.759882608425988</v>
+        <v>11.11197416032206</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.4333429915923</v>
+        <v>9.818144666610891</v>
       </c>
       <c r="D11">
-        <v>18.36601982789953</v>
+        <v>3.65754011003958</v>
       </c>
       <c r="E11">
-        <v>13.84706389112599</v>
+        <v>12.0218006103289</v>
       </c>
       <c r="F11">
-        <v>118.3728701204084</v>
+        <v>29.51497350728323</v>
       </c>
       <c r="G11">
-        <v>1.552797124710541</v>
+        <v>42.50946652830824</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.8411828150141</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>23.59971884177109</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>97.15430806597929</v>
+        <v>28.14553504386353</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.073142267690234</v>
       </c>
       <c r="M11">
-        <v>59.57475902585057</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4.698056063305959</v>
+        <v>10.9716229685407</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.3504381430061</v>
+        <v>9.927119561123954</v>
       </c>
       <c r="D12">
-        <v>20.07438298326976</v>
+        <v>3.648593908445106</v>
       </c>
       <c r="E12">
-        <v>15.01987549410074</v>
+        <v>12.14781600655572</v>
       </c>
       <c r="F12">
-        <v>128.0513593458325</v>
+        <v>29.82548145593531</v>
       </c>
       <c r="G12">
-        <v>1.473791862265271</v>
+        <v>43.00209063761505</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.90804214026567</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>23.81351222886233</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>103.8941696856861</v>
+        <v>28.51447371719702</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.123220624116651</v>
       </c>
       <c r="M12">
-        <v>63.59175137959776</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5.765736891116678</v>
+        <v>10.91897721467808</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.04543184150949</v>
+        <v>9.903705230066096</v>
       </c>
       <c r="D13">
-        <v>19.4970019357704</v>
+        <v>3.650517851203627</v>
       </c>
       <c r="E13">
-        <v>14.61057020525513</v>
+        <v>12.1207111364978</v>
       </c>
       <c r="F13">
-        <v>124.8142298204926</v>
+        <v>29.75854832959601</v>
       </c>
       <c r="G13">
-        <v>1.500711515352057</v>
+        <v>42.89592533203817</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.89354880433252</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>23.76737264232592</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>101.6588862091728</v>
+        <v>28.43532826708675</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.112419560479648</v>
       </c>
       <c r="M13">
-        <v>62.2668743583987</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>5.404325318777614</v>
+        <v>10.9302929595658</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.48425507507363</v>
+        <v>9.827135027816482</v>
       </c>
       <c r="D14">
-        <v>18.45878624025362</v>
+        <v>3.65680284707889</v>
       </c>
       <c r="E14">
-        <v>13.90806528205537</v>
+        <v>12.03218363040431</v>
       </c>
       <c r="F14">
-        <v>118.905910058086</v>
+        <v>29.54049227922216</v>
       </c>
       <c r="G14">
-        <v>1.548559006796639</v>
+        <v>42.54996354560747</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.84664113875434</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>23.61726480866259</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>97.5300275262554</v>
+        <v>28.17602873255564</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.077255126814508</v>
       </c>
       <c r="M14">
-        <v>59.80026399104859</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>4.755811297054112</v>
+        <v>10.96728166217851</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.23526563269471</v>
+        <v>9.780071657619485</v>
       </c>
       <c r="D15">
-        <v>18.0072193482748</v>
+        <v>3.660660734837232</v>
       </c>
       <c r="E15">
-        <v>13.6134594071319</v>
+        <v>11.97785636798797</v>
       </c>
       <c r="F15">
-        <v>116.3037049891744</v>
+        <v>29.40710154415708</v>
       </c>
       <c r="G15">
-        <v>1.569129209961324</v>
+        <v>42.33825630882683</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.81818265723366</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>23.52559835567433</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>95.69064849515246</v>
+        <v>28.0162835557088</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.055762149816398</v>
       </c>
       <c r="M15">
-        <v>58.69485004889743</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.624777469754143</v>
+        <v>10.99000393243029</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.20468120329477</v>
+        <v>9.507900428758237</v>
       </c>
       <c r="D16">
-        <v>16.1903699838647</v>
+        <v>3.68289379354623</v>
       </c>
       <c r="E16">
-        <v>12.47507226271571</v>
+        <v>11.66498811403103</v>
       </c>
       <c r="F16">
-        <v>105.6572349015734</v>
+        <v>28.64539008439395</v>
       </c>
       <c r="G16">
-        <v>1.650280389863527</v>
+        <v>41.12818511229182</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.6592354208166</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>23.00456370738013</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>88.02418871850655</v>
+        <v>27.0866739200773</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.933305088774633</v>
       </c>
       <c r="M16">
-        <v>54.05642936304127</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>5.828639590353816</v>
+        <v>11.12121634507013</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.71385574520014</v>
+        <v>9.338744978872871</v>
       </c>
       <c r="D17">
-        <v>15.35186549911466</v>
+        <v>3.696645118186295</v>
       </c>
       <c r="E17">
-        <v>11.96675912685266</v>
+        <v>11.47170276233938</v>
       </c>
       <c r="F17">
-        <v>100.6575806598774</v>
+        <v>28.1805442976484</v>
       </c>
       <c r="G17">
-        <v>1.686805454262412</v>
+        <v>40.38867778837478</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.56535317186696</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>22.68873621903288</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>84.34165194782668</v>
+        <v>26.50360932679038</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.858818990674487</v>
       </c>
       <c r="M17">
-        <v>51.81548158800796</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>6.377213339708339</v>
+        <v>11.20259860915655</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.45576252834122</v>
+        <v>9.240655963506029</v>
       </c>
       <c r="D18">
-        <v>14.91733573780454</v>
+        <v>3.704595976332311</v>
       </c>
       <c r="E18">
-        <v>11.70587529770732</v>
+        <v>11.36004563718721</v>
       </c>
       <c r="F18">
-        <v>98.04727781914626</v>
+        <v>27.91409304453327</v>
       </c>
       <c r="G18">
-        <v>1.705490954171375</v>
+        <v>39.96439737102362</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.51266195247465</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.50848466645724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>82.39700930622639</v>
+        <v>26.16349918027811</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.816212752371142</v>
       </c>
       <c r="M18">
-        <v>50.62969634037052</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6.65912681736855</v>
+        <v>11.24973227837148</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.37141510792952</v>
+        <v>9.207309101159105</v>
       </c>
       <c r="D19">
-        <v>14.77625156252748</v>
+        <v>3.707295155271685</v>
       </c>
       <c r="E19">
-        <v>11.62144650979996</v>
+        <v>11.3221585954498</v>
       </c>
       <c r="F19">
-        <v>97.19703603399363</v>
+        <v>27.82403688757372</v>
       </c>
       <c r="G19">
-        <v>1.711521485922947</v>
+        <v>39.82092941758837</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.49504374669076</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.44769637396957</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>81.76024986185789</v>
+        <v>26.04752379298877</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.801827822490647</v>
       </c>
       <c r="M19">
-        <v>50.24111105037008</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6.750271209617553</v>
+        <v>11.26574660166135</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.76328905616549</v>
+        <v>9.356834395502887</v>
       </c>
       <c r="D20">
-        <v>15.43558567426889</v>
+        <v>3.69517698291679</v>
       </c>
       <c r="E20">
-        <v>12.01719351191086</v>
+        <v>11.49232877033356</v>
       </c>
       <c r="F20">
-        <v>101.1590190774349</v>
+        <v>28.22993368000868</v>
       </c>
       <c r="G20">
-        <v>1.683186116687001</v>
+        <v>40.46729013149793</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.57521121798992</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>22.72221141353041</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>84.7134665250577</v>
+        <v>26.56616770844364</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.866723772191888</v>
       </c>
       <c r="M20">
-        <v>52.04202923030756</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>6.322700195001706</v>
+        <v>11.19390169190965</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.62113838544579</v>
+        <v>9.849659316307831</v>
       </c>
       <c r="D21">
-        <v>18.70933442403967</v>
+        <v>3.654955093922044</v>
       </c>
       <c r="E21">
-        <v>14.07415600074899</v>
+        <v>12.05820751233917</v>
       </c>
       <c r="F21">
-        <v>120.3414964195415</v>
+        <v>29.60450419786652</v>
       </c>
       <c r="G21">
-        <v>1.537081252998253</v>
+        <v>42.65153829928174</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.86036184880417</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>23.66129696219529</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>98.53922958602553</v>
+        <v>28.25238203476002</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.087574135485738</v>
       </c>
       <c r="M21">
-        <v>60.40518564194733</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4.911996944392943</v>
+        <v>10.95640349323165</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.62113838544579</v>
+        <v>10.16452197267654</v>
       </c>
       <c r="D22">
-        <v>18.70933442403967</v>
+        <v>3.629033001036529</v>
       </c>
       <c r="E22">
-        <v>14.07415600074899</v>
+        <v>12.42352231049936</v>
       </c>
       <c r="F22">
-        <v>120.3414964195415</v>
+        <v>30.51073575924259</v>
       </c>
       <c r="G22">
-        <v>1.537081252998253</v>
+        <v>44.08826410806614</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.05891141608005</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>24.28753366870851</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>98.53922958602553</v>
+        <v>29.31325234796211</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.233987268179246</v>
       </c>
       <c r="M22">
-        <v>60.40518564194733</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.911996944392943</v>
+        <v>10.80411720048321</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.62113838544579</v>
+        <v>9.997139215927874</v>
       </c>
       <c r="D23">
-        <v>18.70933442403967</v>
+        <v>3.642834713600008</v>
       </c>
       <c r="E23">
-        <v>14.07415600074899</v>
+        <v>12.22896647459176</v>
       </c>
       <c r="F23">
-        <v>120.3414964195415</v>
+        <v>30.02634610270296</v>
       </c>
       <c r="G23">
-        <v>1.537081252998253</v>
+        <v>43.32061089898173</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.9517997555695</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>23.95215137469404</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>98.53922958602553</v>
+        <v>28.75075701064261</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.155654235234339</v>
       </c>
       <c r="M23">
-        <v>60.40518564194733</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>4.911996944392943</v>
+        <v>10.88512416621388</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>16.19794459168632</v>
+        <v>9.348658782453564</v>
       </c>
       <c r="D24">
-        <v>26.28245986343846</v>
+        <v>3.695840586523281</v>
       </c>
       <c r="E24">
-        <v>21.1607963734619</v>
+        <v>11.48300541509903</v>
       </c>
       <c r="F24">
-        <v>159.6345313644069</v>
+        <v>28.2076022601206</v>
       </c>
       <c r="G24">
-        <v>1.177405505677128</v>
+        <v>40.4317467688411</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.57075040526618</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>22.70707315983159</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>124.8845729393336</v>
+        <v>26.53790033386607</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.86314934467682</v>
       </c>
       <c r="M24">
-        <v>75.15912202818876</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>9.482904186910009</v>
+        <v>11.19783249107821</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>17.03454141639131</v>
+        <v>8.618997600887763</v>
       </c>
       <c r="D25">
-        <v>29.28316481340374</v>
+        <v>3.754610219228979</v>
       </c>
       <c r="E25">
-        <v>26.36373919536355</v>
+        <v>10.66015555415339</v>
       </c>
       <c r="F25">
-        <v>171.2254414174682</v>
+        <v>26.28143196193468</v>
       </c>
       <c r="G25">
-        <v>1.041420130671679</v>
+        <v>37.35734310869507</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.20938790624241</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.41796843018194</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>132.403681708098</v>
+        <v>23.96894056030697</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.556728246336188</v>
       </c>
       <c r="M25">
-        <v>78.09632476637405</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.94517489062984</v>
+        <v>11.547563581457</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.057433340741364</v>
+        <v>9.491026518625059</v>
       </c>
       <c r="D2">
-        <v>3.799321497110397</v>
+        <v>5.883356914042586</v>
       </c>
       <c r="E2">
-        <v>10.04081045463425</v>
+        <v>12.57342016251977</v>
       </c>
       <c r="F2">
-        <v>24.8977778626911</v>
+        <v>30.55885026450516</v>
       </c>
       <c r="G2">
-        <v>35.13555516250332</v>
+        <v>39.86534104622985</v>
       </c>
       <c r="H2">
-        <v>10.98296835419016</v>
+        <v>16.83316682029627</v>
       </c>
       <c r="I2">
-        <v>20.51627257493681</v>
+        <v>27.61652329687077</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.91518197432211</v>
+        <v>16.9908014564247</v>
       </c>
       <c r="L2">
-        <v>6.339291906025705</v>
+        <v>9.577868010516578</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.81577370606919</v>
+        <v>17.65228382869239</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.663066813339641</v>
+        <v>9.427497200206613</v>
       </c>
       <c r="D3">
-        <v>3.83056825160574</v>
+        <v>5.891914011016291</v>
       </c>
       <c r="E3">
-        <v>9.614404347123562</v>
+        <v>12.52516203091558</v>
       </c>
       <c r="F3">
-        <v>23.98480057733765</v>
+        <v>30.51539782244329</v>
       </c>
       <c r="G3">
-        <v>33.66129805631574</v>
+        <v>39.75378929431074</v>
       </c>
       <c r="H3">
-        <v>10.8526275206596</v>
+        <v>16.87463977238474</v>
       </c>
       <c r="I3">
-        <v>19.93576861091285</v>
+        <v>27.62629622543163</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.41950177542074</v>
+        <v>16.53518966051216</v>
       </c>
       <c r="L3">
-        <v>6.197314792591498</v>
+        <v>9.581003474927124</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.00429533542673</v>
+        <v>17.71083465628408</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.414772355952037</v>
+        <v>9.390112568384614</v>
       </c>
       <c r="D4">
-        <v>3.850238606597495</v>
+        <v>5.897483163426196</v>
       </c>
       <c r="E4">
-        <v>9.350076471615733</v>
+        <v>12.49821140890673</v>
       </c>
       <c r="F4">
-        <v>23.43775433916533</v>
+        <v>30.49869935323659</v>
       </c>
       <c r="G4">
-        <v>32.77397195057582</v>
+        <v>39.70052272482256</v>
       </c>
       <c r="H4">
-        <v>10.78341346474755</v>
+        <v>16.90398337401394</v>
       </c>
       <c r="I4">
-        <v>19.59479395279466</v>
+        <v>27.64016427238827</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.44912304276458</v>
+        <v>16.25203933559521</v>
       </c>
       <c r="L4">
-        <v>6.112904344853427</v>
+        <v>9.584647709655489</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.12341751092737</v>
+        <v>17.74872684430441</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.312164134157909</v>
+        <v>9.375298689625714</v>
       </c>
       <c r="D5">
-        <v>3.858379181529344</v>
+        <v>5.899832164939745</v>
       </c>
       <c r="E5">
-        <v>9.24186747203715</v>
+        <v>12.48791033608076</v>
       </c>
       <c r="F5">
-        <v>23.21844993331806</v>
+        <v>30.49440446930549</v>
       </c>
       <c r="G5">
-        <v>32.41727773785307</v>
+        <v>39.68265146049826</v>
       </c>
       <c r="H5">
-        <v>10.75783702201505</v>
+        <v>16.91691331273641</v>
       </c>
       <c r="I5">
-        <v>19.45978652935764</v>
+        <v>27.64778904459716</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.04049043838491</v>
+        <v>16.13597413776932</v>
       </c>
       <c r="L5">
-        <v>6.07921906005467</v>
+        <v>9.586565113669341</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.17281424771329</v>
+        <v>17.76465769411549</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.295043927360156</v>
+        <v>9.372864619252779</v>
       </c>
       <c r="D6">
-        <v>3.859738539036595</v>
+        <v>5.900227027024139</v>
       </c>
       <c r="E6">
-        <v>9.223874070440806</v>
+        <v>12.48624121893585</v>
       </c>
       <c r="F6">
-        <v>23.18225992299524</v>
+        <v>30.49384284340643</v>
       </c>
       <c r="G6">
-        <v>32.35835714479256</v>
+        <v>39.67991566972643</v>
       </c>
       <c r="H6">
-        <v>10.75374609088112</v>
+        <v>16.91911893875692</v>
       </c>
       <c r="I6">
-        <v>19.43760823117014</v>
+        <v>27.64917415491856</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.97183710853085</v>
+        <v>16.1166659212726</v>
       </c>
       <c r="L6">
-        <v>6.073669192345439</v>
+        <v>9.586909609217031</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.18106828872219</v>
+        <v>17.76733259861167</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.413394144958444</v>
+        <v>9.389911063789473</v>
       </c>
       <c r="D7">
-        <v>3.850347884235332</v>
+        <v>5.897514520497642</v>
       </c>
       <c r="E7">
-        <v>9.348618927551552</v>
+        <v>12.49806971614243</v>
       </c>
       <c r="F7">
-        <v>23.434781762762</v>
+        <v>30.49863127069931</v>
       </c>
       <c r="G7">
-        <v>32.76914105869609</v>
+        <v>39.70026617360251</v>
       </c>
       <c r="H7">
-        <v>10.78305801165658</v>
+        <v>16.90415381981697</v>
       </c>
       <c r="I7">
-        <v>19.59295716458983</v>
+        <v>27.64025911987317</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.44366565520354</v>
+        <v>16.25047654953368</v>
       </c>
       <c r="L7">
-        <v>6.112447144817758</v>
+        <v>9.584671817886361</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.12408022781855</v>
+        <v>17.74893970985793</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.922798381842417</v>
+        <v>9.468792618350692</v>
       </c>
       <c r="D8">
-        <v>3.809996439259637</v>
+        <v>5.886242190703857</v>
       </c>
       <c r="E8">
-        <v>9.894384448262977</v>
+        <v>12.55622931761461</v>
       </c>
       <c r="F8">
-        <v>24.58030442914202</v>
+        <v>30.54179696892173</v>
       </c>
       <c r="G8">
-        <v>34.62375298910387</v>
+        <v>39.82372327986332</v>
       </c>
       <c r="H8">
-        <v>10.93572896079671</v>
+        <v>16.84665970413937</v>
       </c>
       <c r="I8">
-        <v>20.31294188793145</v>
+        <v>27.61825754056254</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.41019953990678</v>
+        <v>16.83451573477212</v>
       </c>
       <c r="L8">
-        <v>6.289775085750174</v>
+        <v>9.578592422299421</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.88008019049964</v>
+        <v>17.67206986919679</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.868704081630625</v>
+        <v>9.63576858993121</v>
       </c>
       <c r="D9">
-        <v>3.734595476298654</v>
+        <v>5.866623695347062</v>
       </c>
       <c r="E9">
-        <v>10.93961337144021</v>
+        <v>12.69117462581544</v>
       </c>
       <c r="F9">
-        <v>26.92523893935081</v>
+        <v>30.70552559582144</v>
       </c>
       <c r="G9">
-        <v>38.38701054671181</v>
+        <v>40.18609055867936</v>
       </c>
       <c r="H9">
-        <v>11.32474616579104</v>
+        <v>16.76483056890127</v>
       </c>
       <c r="I9">
-        <v>21.84493995561771</v>
+        <v>27.63770188933514</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.85913799240874</v>
+        <v>17.94555917734699</v>
       </c>
       <c r="L9">
-        <v>6.658707491277199</v>
+        <v>9.580301885294505</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.42809909031082</v>
+        <v>17.53668065843045</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.527093805811058</v>
+        <v>9.765115487436047</v>
       </c>
       <c r="D10">
-        <v>3.681330266842282</v>
+        <v>5.853707762482837</v>
       </c>
       <c r="E10">
-        <v>11.68697672745486</v>
+        <v>12.80250938390955</v>
       </c>
       <c r="F10">
-        <v>28.69855472866245</v>
+        <v>30.8736932651946</v>
       </c>
       <c r="G10">
-        <v>41.21271024381505</v>
+        <v>40.52452492395693</v>
       </c>
       <c r="H10">
-        <v>11.67012703034924</v>
+        <v>16.72373760375522</v>
       </c>
       <c r="I10">
-        <v>23.04079170725883</v>
+        <v>27.69028930547693</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>27.15256605511271</v>
+        <v>18.73199953253021</v>
       </c>
       <c r="L10">
-        <v>6.941836313597325</v>
+        <v>9.589848279088104</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.11197416032206</v>
+        <v>17.44649390612975</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.818144666610891</v>
+        <v>9.825222156676096</v>
       </c>
       <c r="D11">
-        <v>3.65754011003958</v>
+        <v>5.84815346453054</v>
       </c>
       <c r="E11">
-        <v>12.0218006103289</v>
+        <v>12.85567351477894</v>
       </c>
       <c r="F11">
-        <v>29.51497350728323</v>
+        <v>30.96046433789519</v>
       </c>
       <c r="G11">
-        <v>42.50946652830824</v>
+        <v>40.69381132046838</v>
       </c>
       <c r="H11">
-        <v>11.8411828150141</v>
+        <v>16.70920921694625</v>
       </c>
       <c r="I11">
-        <v>23.59971884177109</v>
+        <v>27.722532339133</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.14553504386353</v>
+        <v>19.08162177838196</v>
       </c>
       <c r="L11">
-        <v>7.073142267690234</v>
+        <v>9.595983848097758</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.9716229685407</v>
+        <v>17.40746586533653</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.927119561123954</v>
+        <v>9.848148959530992</v>
       </c>
       <c r="D12">
-        <v>3.648593908445106</v>
+        <v>5.846096104949227</v>
       </c>
       <c r="E12">
-        <v>12.14781600655572</v>
+        <v>12.87615518817705</v>
       </c>
       <c r="F12">
-        <v>29.82548145593531</v>
+        <v>30.99478395757822</v>
       </c>
       <c r="G12">
-        <v>43.00209063761505</v>
+        <v>40.760082166008</v>
       </c>
       <c r="H12">
-        <v>11.90804214026567</v>
+        <v>16.70430905766884</v>
       </c>
       <c r="I12">
-        <v>23.81351222886233</v>
+        <v>27.73593622123943</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.51447371719702</v>
+        <v>19.21272136260139</v>
       </c>
       <c r="L12">
-        <v>7.123220624116651</v>
+        <v>9.598564072735687</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.91897721467808</v>
+        <v>17.39297320010021</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.903705230066096</v>
+        <v>9.843204155172609</v>
       </c>
       <c r="D13">
-        <v>3.650517851203627</v>
+        <v>5.846537155337295</v>
       </c>
       <c r="E13">
-        <v>12.1207111364978</v>
+        <v>12.8717287503597</v>
       </c>
       <c r="F13">
-        <v>29.75854832959601</v>
+        <v>30.98732789887723</v>
       </c>
       <c r="G13">
-        <v>42.89592533203817</v>
+        <v>40.74571390199323</v>
       </c>
       <c r="H13">
-        <v>11.89354880433252</v>
+        <v>16.70533760875864</v>
       </c>
       <c r="I13">
-        <v>23.76737264232592</v>
+        <v>27.73299639852296</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.43532826708675</v>
+        <v>19.18454618056311</v>
       </c>
       <c r="L13">
-        <v>7.112419560479648</v>
+        <v>9.597996970880704</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.9302929595658</v>
+        <v>17.39608173172401</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.827135027816482</v>
+        <v>9.827105131961247</v>
       </c>
       <c r="D14">
-        <v>3.65680284707889</v>
+        <v>5.847983285226447</v>
       </c>
       <c r="E14">
-        <v>12.03218363040431</v>
+        <v>12.8573516217795</v>
       </c>
       <c r="F14">
-        <v>29.54049227922216</v>
+        <v>30.9632586460472</v>
       </c>
       <c r="G14">
-        <v>42.54996354560747</v>
+        <v>40.69922029785087</v>
       </c>
       <c r="H14">
-        <v>11.84664113875434</v>
+        <v>16.70879401094629</v>
       </c>
       <c r="I14">
-        <v>23.61726480866259</v>
+        <v>27.72361117083491</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>28.17602873255564</v>
+        <v>19.09243404630465</v>
       </c>
       <c r="L14">
-        <v>7.077255126814508</v>
+        <v>9.596190984048441</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.96728166217851</v>
+        <v>17.40626781039103</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.780071657619485</v>
+        <v>9.817265106429863</v>
       </c>
       <c r="D15">
-        <v>3.660660734837232</v>
+        <v>5.848875055724534</v>
       </c>
       <c r="E15">
-        <v>11.97785636798797</v>
+        <v>12.84859036068037</v>
       </c>
       <c r="F15">
-        <v>29.40710154415708</v>
+        <v>30.9487053285403</v>
       </c>
       <c r="G15">
-        <v>42.33825630882683</v>
+        <v>40.6710224312933</v>
       </c>
       <c r="H15">
-        <v>11.81818265723366</v>
+        <v>16.71098955064613</v>
       </c>
       <c r="I15">
-        <v>23.52559835567433</v>
+        <v>27.71801786588369</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>28.0162835557088</v>
+        <v>19.03584056368047</v>
       </c>
       <c r="L15">
-        <v>7.055762149816398</v>
+        <v>9.595118177677604</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.99000393243029</v>
+        <v>17.41254434847769</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.507900428758237</v>
+        <v>9.761211460559952</v>
       </c>
       <c r="D16">
-        <v>3.68289379354623</v>
+        <v>5.854077190468689</v>
       </c>
       <c r="E16">
-        <v>11.66498811403103</v>
+        <v>12.79908459102389</v>
       </c>
       <c r="F16">
-        <v>28.64539008439395</v>
+        <v>30.86822797095194</v>
       </c>
       <c r="G16">
-        <v>41.12818511229182</v>
+        <v>40.51376695563228</v>
       </c>
       <c r="H16">
-        <v>11.6592354208166</v>
+        <v>16.72477109791929</v>
       </c>
       <c r="I16">
-        <v>23.00456370738013</v>
+        <v>27.6883494126319</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>27.0866739200773</v>
+        <v>18.70897627076583</v>
       </c>
       <c r="L16">
-        <v>6.933305088774633</v>
+        <v>9.589483301367482</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.12121634507013</v>
+        <v>17.44908461018528</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.338744978872871</v>
+        <v>9.72713709527028</v>
       </c>
       <c r="D17">
-        <v>3.696645118186295</v>
+        <v>5.857350618445394</v>
       </c>
       <c r="E17">
-        <v>11.47170276233938</v>
+        <v>12.76935052471981</v>
       </c>
       <c r="F17">
-        <v>28.1805442976484</v>
+        <v>30.82147804261093</v>
       </c>
       <c r="G17">
-        <v>40.38867778837478</v>
+        <v>40.42119644042849</v>
       </c>
       <c r="H17">
-        <v>11.56535317186696</v>
+        <v>16.73429424441005</v>
       </c>
       <c r="I17">
-        <v>22.68873621903288</v>
+        <v>27.67227869411467</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.50360932679038</v>
+        <v>18.50627977066607</v>
       </c>
       <c r="L17">
-        <v>6.858818990674487</v>
+        <v>9.586485032630634</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.20259860915655</v>
+        <v>17.47201201648578</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.240655963506029</v>
+        <v>9.707658592189272</v>
       </c>
       <c r="D18">
-        <v>3.704595976332311</v>
+        <v>5.859263657919337</v>
       </c>
       <c r="E18">
-        <v>11.36004563718721</v>
+        <v>12.75248600970641</v>
       </c>
       <c r="F18">
-        <v>27.91409304453327</v>
+        <v>30.79555656099291</v>
       </c>
       <c r="G18">
-        <v>39.96439737102362</v>
+        <v>40.36939800154482</v>
       </c>
       <c r="H18">
-        <v>11.51266195247465</v>
+        <v>16.74016360191406</v>
       </c>
       <c r="I18">
-        <v>22.50848466645724</v>
+        <v>27.66381866425296</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>26.16349918027811</v>
+        <v>18.38893530606252</v>
       </c>
       <c r="L18">
-        <v>6.816212752371142</v>
+        <v>9.584929331697047</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.24973227837148</v>
+        <v>17.4853874049918</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.207309101159105</v>
+        <v>9.701084639187956</v>
       </c>
       <c r="D19">
-        <v>3.707295155271685</v>
+        <v>5.859916583725069</v>
       </c>
       <c r="E19">
-        <v>11.3221585954498</v>
+        <v>12.74681717414297</v>
       </c>
       <c r="F19">
-        <v>27.82403688757372</v>
+        <v>30.78694665225165</v>
       </c>
       <c r="G19">
-        <v>39.82092941758837</v>
+        <v>40.35210933462493</v>
       </c>
       <c r="H19">
-        <v>11.49504374669076</v>
+        <v>16.74221809379543</v>
       </c>
       <c r="I19">
-        <v>22.44769637396957</v>
+        <v>27.66108884553479</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>26.04752379298877</v>
+        <v>18.34907816263352</v>
       </c>
       <c r="L19">
-        <v>6.801827822490647</v>
+        <v>9.584431621123985</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.26574660166135</v>
+        <v>17.48994842640489</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.356834395502887</v>
+        <v>9.730752050089784</v>
       </c>
       <c r="D20">
-        <v>3.69517698291679</v>
+        <v>5.856999027593055</v>
       </c>
       <c r="E20">
-        <v>11.49232877033356</v>
+        <v>12.7724912504075</v>
       </c>
       <c r="F20">
-        <v>28.22993368000868</v>
+        <v>30.82635458938536</v>
       </c>
       <c r="G20">
-        <v>40.46729013149793</v>
+        <v>40.430901373472</v>
       </c>
       <c r="H20">
-        <v>11.57521121798992</v>
+        <v>16.73323991076984</v>
       </c>
       <c r="I20">
-        <v>22.72221141353041</v>
+        <v>27.67390838108435</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.56616770844364</v>
+        <v>18.52793663478473</v>
       </c>
       <c r="L20">
-        <v>6.866723772191888</v>
+        <v>9.586786737476061</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.19390169190965</v>
+        <v>17.4695518891465</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.849659316307831</v>
+        <v>9.831829439479248</v>
       </c>
       <c r="D21">
-        <v>3.654955093922044</v>
+        <v>5.847557277260013</v>
       </c>
       <c r="E21">
-        <v>12.05820751233917</v>
+        <v>12.86156514772628</v>
       </c>
       <c r="F21">
-        <v>29.60450419786652</v>
+        <v>30.97028884756993</v>
       </c>
       <c r="G21">
-        <v>42.65153829928174</v>
+        <v>40.71281815240228</v>
       </c>
       <c r="H21">
-        <v>11.86036184880417</v>
+        <v>16.70776244055754</v>
       </c>
       <c r="I21">
-        <v>23.66129696219529</v>
+        <v>27.72633545697896</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>28.25238203476002</v>
+        <v>19.1195256946042</v>
       </c>
       <c r="L21">
-        <v>7.087574135485738</v>
+        <v>9.596714485004561</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.95640349323165</v>
+        <v>17.40326814663356</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.16452197267654</v>
+        <v>9.898847513695772</v>
       </c>
       <c r="D22">
-        <v>3.629033001036529</v>
+        <v>5.841654161792867</v>
       </c>
       <c r="E22">
-        <v>12.42352231049936</v>
+        <v>12.92181147777152</v>
       </c>
       <c r="F22">
-        <v>30.51073575924259</v>
+        <v>31.0728666591127</v>
       </c>
       <c r="G22">
-        <v>44.08826410806614</v>
+        <v>40.90966930200562</v>
       </c>
       <c r="H22">
-        <v>12.05891141608005</v>
+        <v>16.69461800029943</v>
       </c>
       <c r="I22">
-        <v>24.28753366870851</v>
+        <v>27.76755785705884</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.31325234796211</v>
+        <v>19.49856622238605</v>
       </c>
       <c r="L22">
-        <v>7.233987268179246</v>
+        <v>9.604699185727235</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.80411720048321</v>
+        <v>17.36161686592473</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.997139215927874</v>
+        <v>9.862996495549082</v>
       </c>
       <c r="D23">
-        <v>3.642834713600008</v>
+        <v>5.844780362873681</v>
       </c>
       <c r="E23">
-        <v>12.22896647459176</v>
+        <v>12.88947526379994</v>
       </c>
       <c r="F23">
-        <v>30.02634610270296</v>
+        <v>31.01734627211694</v>
       </c>
       <c r="G23">
-        <v>43.32061089898173</v>
+        <v>40.8034671349035</v>
       </c>
       <c r="H23">
-        <v>11.9517997555695</v>
+        <v>16.70131182025839</v>
       </c>
       <c r="I23">
-        <v>23.95215137469404</v>
+        <v>27.74492115878796</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.75075701064261</v>
+        <v>19.29699876211776</v>
       </c>
       <c r="L23">
-        <v>7.155654235234339</v>
+        <v>9.60030105961518</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.88512416621388</v>
+        <v>17.38369453450821</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.348658782453564</v>
+        <v>9.729117381096158</v>
       </c>
       <c r="D24">
-        <v>3.695840586523281</v>
+        <v>5.857157884903623</v>
       </c>
       <c r="E24">
-        <v>11.48300541509903</v>
+        <v>12.77107061100033</v>
       </c>
       <c r="F24">
-        <v>28.2076022601206</v>
+        <v>30.82414692459832</v>
       </c>
       <c r="G24">
-        <v>40.4317467688411</v>
+        <v>40.42650934227894</v>
       </c>
       <c r="H24">
-        <v>11.57075040526618</v>
+        <v>16.73371534674715</v>
       </c>
       <c r="I24">
-        <v>22.70707315983159</v>
+        <v>27.67316917218137</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.53790033386607</v>
+        <v>18.51814808465963</v>
       </c>
       <c r="L24">
-        <v>6.86314934467682</v>
+        <v>9.586649813213967</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.19783249107821</v>
+        <v>17.47066350797549</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.618997600887763</v>
+        <v>9.589364369190893</v>
       </c>
       <c r="D25">
-        <v>3.754610219228979</v>
+        <v>5.871666712284545</v>
       </c>
       <c r="E25">
-        <v>10.66015555415339</v>
+        <v>12.65248492975291</v>
       </c>
       <c r="F25">
-        <v>26.28143196193468</v>
+        <v>30.6527899744322</v>
       </c>
       <c r="G25">
-        <v>37.35734310869507</v>
+        <v>40.07527796442373</v>
       </c>
       <c r="H25">
-        <v>11.20938790624241</v>
+        <v>16.78363837230005</v>
       </c>
       <c r="I25">
-        <v>21.41796843018194</v>
+        <v>27.62572062347501</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.96894056030697</v>
+        <v>17.64962836078432</v>
       </c>
       <c r="L25">
-        <v>6.556728246336188</v>
+        <v>9.578381454836716</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.547563581457</v>
+        <v>17.57167137346439</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.491026518625059</v>
+        <v>8.057433340741426</v>
       </c>
       <c r="D2">
-        <v>5.883356914042586</v>
+        <v>3.799321497110406</v>
       </c>
       <c r="E2">
-        <v>12.57342016251977</v>
+        <v>10.0408104546342</v>
       </c>
       <c r="F2">
-        <v>30.55885026450516</v>
+        <v>24.89777786269118</v>
       </c>
       <c r="G2">
-        <v>39.86534104622985</v>
+        <v>35.13555516250341</v>
       </c>
       <c r="H2">
-        <v>16.83316682029627</v>
+        <v>10.98296835419019</v>
       </c>
       <c r="I2">
-        <v>27.61652329687077</v>
+        <v>20.51627257493691</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.9908014564247</v>
+        <v>21.91518197432205</v>
       </c>
       <c r="L2">
-        <v>9.577868010516578</v>
+        <v>6.339291906025586</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.65228382869239</v>
+        <v>11.81577370606923</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.427497200206613</v>
+        <v>7.663066813339668</v>
       </c>
       <c r="D3">
-        <v>5.891914011016291</v>
+        <v>3.830568251605674</v>
       </c>
       <c r="E3">
-        <v>12.52516203091558</v>
+        <v>9.614404347123582</v>
       </c>
       <c r="F3">
-        <v>30.51539782244329</v>
+        <v>23.98480057733779</v>
       </c>
       <c r="G3">
-        <v>39.75378929431074</v>
+        <v>33.66129805631579</v>
       </c>
       <c r="H3">
-        <v>16.87463977238474</v>
+        <v>10.85262752065972</v>
       </c>
       <c r="I3">
-        <v>27.62629622543163</v>
+        <v>19.93576861091298</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.53518966051216</v>
+        <v>20.41950177542069</v>
       </c>
       <c r="L3">
-        <v>9.581003474927124</v>
+        <v>6.197314792591527</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.71083465628408</v>
+        <v>12.00429533542676</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.390112568384614</v>
+        <v>7.414772355952093</v>
       </c>
       <c r="D4">
-        <v>5.897483163426196</v>
+        <v>3.850238606597492</v>
       </c>
       <c r="E4">
-        <v>12.49821140890673</v>
+        <v>9.350076471615699</v>
       </c>
       <c r="F4">
-        <v>30.49869935323659</v>
+        <v>23.43775433916529</v>
       </c>
       <c r="G4">
-        <v>39.70052272482256</v>
+        <v>32.77397195057588</v>
       </c>
       <c r="H4">
-        <v>16.90398337401394</v>
+        <v>10.78341346474751</v>
       </c>
       <c r="I4">
-        <v>27.64016427238827</v>
+        <v>19.59479395279464</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.25203933559521</v>
+        <v>19.44912304276461</v>
       </c>
       <c r="L4">
-        <v>9.584647709655489</v>
+        <v>6.112904344853384</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.74872684430441</v>
+        <v>12.12341751092737</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.375298689625714</v>
+        <v>7.312164134157915</v>
       </c>
       <c r="D5">
-        <v>5.899832164939745</v>
+        <v>3.85837918152941</v>
       </c>
       <c r="E5">
-        <v>12.48791033608076</v>
+        <v>9.241867472037111</v>
       </c>
       <c r="F5">
-        <v>30.49440446930549</v>
+        <v>23.21844993331804</v>
       </c>
       <c r="G5">
-        <v>39.68265146049826</v>
+        <v>32.41727773785308</v>
       </c>
       <c r="H5">
-        <v>16.91691331273641</v>
+        <v>10.75783702201505</v>
       </c>
       <c r="I5">
-        <v>27.64778904459716</v>
+        <v>19.45978652935764</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.13597413776932</v>
+        <v>19.0404904383849</v>
       </c>
       <c r="L5">
-        <v>9.586565113669341</v>
+        <v>6.079219060054644</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.76465769411549</v>
+        <v>12.17281424771333</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.372864619252779</v>
+        <v>7.295043927360082</v>
       </c>
       <c r="D6">
-        <v>5.900227027024139</v>
+        <v>3.859738539036727</v>
       </c>
       <c r="E6">
-        <v>12.48624121893585</v>
+        <v>9.223874070440766</v>
       </c>
       <c r="F6">
-        <v>30.49384284340643</v>
+        <v>23.1822599229951</v>
       </c>
       <c r="G6">
-        <v>39.67991566972643</v>
+        <v>32.35835714479249</v>
       </c>
       <c r="H6">
-        <v>16.91911893875692</v>
+        <v>10.75374609088101</v>
       </c>
       <c r="I6">
-        <v>27.64917415491856</v>
+        <v>19.43760823117002</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.1166659212726</v>
+        <v>18.9718371085308</v>
       </c>
       <c r="L6">
-        <v>9.586909609217031</v>
+        <v>6.073669192345502</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.76733259861167</v>
+        <v>12.18106828872219</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.389911063789473</v>
+        <v>7.413394144958539</v>
       </c>
       <c r="D7">
-        <v>5.897514520497642</v>
+        <v>3.850347884235331</v>
       </c>
       <c r="E7">
-        <v>12.49806971614243</v>
+        <v>9.348618927551566</v>
       </c>
       <c r="F7">
-        <v>30.49863127069931</v>
+        <v>23.43478176276192</v>
       </c>
       <c r="G7">
-        <v>39.70026617360251</v>
+        <v>32.76914105869601</v>
       </c>
       <c r="H7">
-        <v>16.90415381981697</v>
+        <v>10.78305801165654</v>
       </c>
       <c r="I7">
-        <v>27.64025911987317</v>
+        <v>19.59295716458979</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.25047654953368</v>
+        <v>19.44366565520357</v>
       </c>
       <c r="L7">
-        <v>9.584671817886361</v>
+        <v>6.112447144817716</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.74893970985793</v>
+        <v>12.12408022781855</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.468792618350692</v>
+        <v>7.922798381842393</v>
       </c>
       <c r="D8">
-        <v>5.886242190703857</v>
+        <v>3.809996439259569</v>
       </c>
       <c r="E8">
-        <v>12.55622931761461</v>
+        <v>9.894384448262992</v>
       </c>
       <c r="F8">
-        <v>30.54179696892173</v>
+        <v>24.58030442914187</v>
       </c>
       <c r="G8">
-        <v>39.82372327986332</v>
+        <v>34.62375298910369</v>
       </c>
       <c r="H8">
-        <v>16.84665970413937</v>
+        <v>10.93572896079654</v>
       </c>
       <c r="I8">
-        <v>27.61825754056254</v>
+        <v>20.31294188793129</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.83451573477212</v>
+        <v>21.41019953990684</v>
       </c>
       <c r="L8">
-        <v>9.578592422299421</v>
+        <v>6.289775085750146</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.67206986919679</v>
+        <v>11.88008019049954</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.63576858993121</v>
+        <v>8.868704081630643</v>
       </c>
       <c r="D9">
-        <v>5.866623695347062</v>
+        <v>3.734595476298654</v>
       </c>
       <c r="E9">
-        <v>12.69117462581544</v>
+        <v>10.93961337144018</v>
       </c>
       <c r="F9">
-        <v>30.70552559582144</v>
+        <v>26.92523893935076</v>
       </c>
       <c r="G9">
-        <v>40.18609055867936</v>
+        <v>38.38701054671179</v>
       </c>
       <c r="H9">
-        <v>16.76483056890127</v>
+        <v>11.32474616579097</v>
       </c>
       <c r="I9">
-        <v>27.63770188933514</v>
+        <v>21.84493995561768</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.94555917734699</v>
+        <v>24.85913799240874</v>
       </c>
       <c r="L9">
-        <v>9.580301885294505</v>
+        <v>6.658707491277162</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.53668065843045</v>
+        <v>11.42809909031075</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.765115487436047</v>
+        <v>9.527093805811045</v>
       </c>
       <c r="D10">
-        <v>5.853707762482837</v>
+        <v>3.681330266842405</v>
       </c>
       <c r="E10">
-        <v>12.80250938390955</v>
+        <v>11.68697672745486</v>
       </c>
       <c r="F10">
-        <v>30.8736932651946</v>
+        <v>28.69855472866243</v>
       </c>
       <c r="G10">
-        <v>40.52452492395693</v>
+        <v>41.21271024381507</v>
       </c>
       <c r="H10">
-        <v>16.72373760375522</v>
+        <v>11.67012703034929</v>
       </c>
       <c r="I10">
-        <v>27.69028930547693</v>
+        <v>23.04079170725882</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.73199953253021</v>
+        <v>27.1525660551127</v>
       </c>
       <c r="L10">
-        <v>9.589848279088104</v>
+        <v>6.941836313597355</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.44649390612975</v>
+        <v>11.11197416032203</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.825222156676096</v>
+        <v>9.818144666610859</v>
       </c>
       <c r="D11">
-        <v>5.84815346453054</v>
+        <v>3.657540110039695</v>
       </c>
       <c r="E11">
-        <v>12.85567351477894</v>
+        <v>12.02180061032893</v>
       </c>
       <c r="F11">
-        <v>30.96046433789519</v>
+        <v>29.51497350728322</v>
       </c>
       <c r="G11">
-        <v>40.69381132046838</v>
+        <v>42.50946652830827</v>
       </c>
       <c r="H11">
-        <v>16.70920921694625</v>
+        <v>11.8411828150141</v>
       </c>
       <c r="I11">
-        <v>27.722532339133</v>
+        <v>23.59971884177111</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.08162177838196</v>
+        <v>28.1455350438635</v>
       </c>
       <c r="L11">
-        <v>9.595983848097758</v>
+        <v>7.073142267690271</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.40746586533653</v>
+        <v>10.97162296854069</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.848148959530992</v>
+        <v>9.92711956112394</v>
       </c>
       <c r="D12">
-        <v>5.846096104949227</v>
+        <v>3.648593908445358</v>
       </c>
       <c r="E12">
-        <v>12.87615518817705</v>
+        <v>12.14781600655572</v>
       </c>
       <c r="F12">
-        <v>30.99478395757822</v>
+        <v>29.82548145593534</v>
       </c>
       <c r="G12">
-        <v>40.760082166008</v>
+        <v>43.00209063761515</v>
       </c>
       <c r="H12">
-        <v>16.70430905766884</v>
+        <v>11.90804214026568</v>
       </c>
       <c r="I12">
-        <v>27.73593622123943</v>
+        <v>23.81351222886236</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.21272136260139</v>
+        <v>28.51447371719705</v>
       </c>
       <c r="L12">
-        <v>9.598564072735687</v>
+        <v>7.123220624116669</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.39297320010021</v>
+        <v>10.91897721467811</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.843204155172609</v>
+        <v>9.9037052300661</v>
       </c>
       <c r="D13">
-        <v>5.846537155337295</v>
+        <v>3.650517851203746</v>
       </c>
       <c r="E13">
-        <v>12.8717287503597</v>
+        <v>12.12071113649778</v>
       </c>
       <c r="F13">
-        <v>30.98732789887723</v>
+        <v>29.75854832959606</v>
       </c>
       <c r="G13">
-        <v>40.74571390199323</v>
+        <v>42.89592533203824</v>
       </c>
       <c r="H13">
-        <v>16.70533760875864</v>
+        <v>11.8935488043326</v>
       </c>
       <c r="I13">
-        <v>27.73299639852296</v>
+        <v>23.76737264232599</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.18454618056311</v>
+        <v>28.43532826708669</v>
       </c>
       <c r="L13">
-        <v>9.597996970880704</v>
+        <v>7.112419560479637</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.39608173172401</v>
+        <v>10.93029295956579</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.827105131961247</v>
+        <v>9.827135027816452</v>
       </c>
       <c r="D14">
-        <v>5.847983285226447</v>
+        <v>3.65680284707891</v>
       </c>
       <c r="E14">
-        <v>12.8573516217795</v>
+        <v>12.0321836304043</v>
       </c>
       <c r="F14">
-        <v>30.9632586460472</v>
+        <v>29.54049227922214</v>
       </c>
       <c r="G14">
-        <v>40.69922029785087</v>
+        <v>42.54996354560741</v>
       </c>
       <c r="H14">
-        <v>16.70879401094629</v>
+        <v>11.84664113875431</v>
       </c>
       <c r="I14">
-        <v>27.72361117083491</v>
+        <v>23.61726480866256</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.09243404630465</v>
+        <v>28.17602873255559</v>
       </c>
       <c r="L14">
-        <v>9.596190984048441</v>
+        <v>7.077255126814512</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.40626781039103</v>
+        <v>10.96728166217851</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.817265106429863</v>
+        <v>9.780071657619496</v>
       </c>
       <c r="D15">
-        <v>5.848875055724534</v>
+        <v>3.660660734837232</v>
       </c>
       <c r="E15">
-        <v>12.84859036068037</v>
+        <v>11.97785636798799</v>
       </c>
       <c r="F15">
-        <v>30.9487053285403</v>
+        <v>29.40710154415706</v>
       </c>
       <c r="G15">
-        <v>40.6710224312933</v>
+        <v>42.33825630882679</v>
       </c>
       <c r="H15">
-        <v>16.71098955064613</v>
+        <v>11.81818265723368</v>
       </c>
       <c r="I15">
-        <v>27.71801786588369</v>
+        <v>23.52559835567433</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.03584056368047</v>
+        <v>28.01628355570881</v>
       </c>
       <c r="L15">
-        <v>9.595118177677604</v>
+        <v>7.055762149816413</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.41254434847769</v>
+        <v>10.99000393243032</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.761211460559952</v>
+        <v>9.507900428758226</v>
       </c>
       <c r="D16">
-        <v>5.854077190468689</v>
+        <v>3.682893793546158</v>
       </c>
       <c r="E16">
-        <v>12.79908459102389</v>
+        <v>11.66498811403102</v>
       </c>
       <c r="F16">
-        <v>30.86822797095194</v>
+        <v>28.64539008439392</v>
       </c>
       <c r="G16">
-        <v>40.51376695563228</v>
+        <v>41.12818511229186</v>
       </c>
       <c r="H16">
-        <v>16.72477109791929</v>
+        <v>11.65923542081656</v>
       </c>
       <c r="I16">
-        <v>27.6883494126319</v>
+        <v>23.00456370738005</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.70897627076583</v>
+        <v>27.08667392007745</v>
       </c>
       <c r="L16">
-        <v>9.589483301367482</v>
+        <v>6.933305088774613</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.44908461018528</v>
+        <v>11.1212163450701</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.72713709527028</v>
+        <v>9.338744978872898</v>
       </c>
       <c r="D17">
-        <v>5.857350618445394</v>
+        <v>3.696645118186233</v>
       </c>
       <c r="E17">
-        <v>12.76935052471981</v>
+        <v>11.47170276233938</v>
       </c>
       <c r="F17">
-        <v>30.82147804261093</v>
+        <v>28.18054429764836</v>
       </c>
       <c r="G17">
-        <v>40.42119644042849</v>
+        <v>40.38867778837471</v>
       </c>
       <c r="H17">
-        <v>16.73429424441005</v>
+        <v>11.56535317186694</v>
       </c>
       <c r="I17">
-        <v>27.67227869411467</v>
+        <v>22.68873621903285</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.50627977066607</v>
+        <v>26.50360932679038</v>
       </c>
       <c r="L17">
-        <v>9.586485032630634</v>
+        <v>6.858818990674437</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.47201201648578</v>
+        <v>11.20259860915652</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.707658592189272</v>
+        <v>9.240655963506017</v>
       </c>
       <c r="D18">
-        <v>5.859263657919337</v>
+        <v>3.70459597633237</v>
       </c>
       <c r="E18">
-        <v>12.75248600970641</v>
+        <v>11.36004563718722</v>
       </c>
       <c r="F18">
-        <v>30.79555656099291</v>
+        <v>27.91409304453327</v>
       </c>
       <c r="G18">
-        <v>40.36939800154482</v>
+        <v>39.96439737102367</v>
       </c>
       <c r="H18">
-        <v>16.74016360191406</v>
+        <v>11.51266195247462</v>
       </c>
       <c r="I18">
-        <v>27.66381866425296</v>
+        <v>22.5084846664572</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.38893530606252</v>
+        <v>26.16349918027817</v>
       </c>
       <c r="L18">
-        <v>9.584929331697047</v>
+        <v>6.816212752371185</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.4853874049918</v>
+        <v>11.24973227837141</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.701084639187956</v>
+        <v>9.207309101159089</v>
       </c>
       <c r="D19">
-        <v>5.859916583725069</v>
+        <v>3.707295155271807</v>
       </c>
       <c r="E19">
-        <v>12.74681717414297</v>
+        <v>11.32215859544982</v>
       </c>
       <c r="F19">
-        <v>30.78694665225165</v>
+        <v>27.82403688757369</v>
       </c>
       <c r="G19">
-        <v>40.35210933462493</v>
+        <v>39.8209294175884</v>
       </c>
       <c r="H19">
-        <v>16.74221809379543</v>
+        <v>11.49504374669076</v>
       </c>
       <c r="I19">
-        <v>27.66108884553479</v>
+        <v>22.44769637396956</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.34907816263352</v>
+        <v>26.04752379298879</v>
       </c>
       <c r="L19">
-        <v>9.584431621123985</v>
+        <v>6.801827822490678</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.48994842640489</v>
+        <v>11.26574660166135</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.730752050089784</v>
+        <v>9.356834395502881</v>
       </c>
       <c r="D20">
-        <v>5.856999027593055</v>
+        <v>3.695176982916794</v>
       </c>
       <c r="E20">
-        <v>12.7724912504075</v>
+        <v>11.49232877033352</v>
       </c>
       <c r="F20">
-        <v>30.82635458938536</v>
+        <v>28.22993368000862</v>
       </c>
       <c r="G20">
-        <v>40.430901373472</v>
+        <v>40.46729013149785</v>
       </c>
       <c r="H20">
-        <v>16.73323991076984</v>
+        <v>11.57521121798988</v>
       </c>
       <c r="I20">
-        <v>27.67390838108435</v>
+        <v>22.7222114135304</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.52793663478473</v>
+        <v>26.56616770844356</v>
       </c>
       <c r="L20">
-        <v>9.586786737476061</v>
+        <v>6.866723772191829</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.4695518891465</v>
+        <v>11.19390169190966</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.831829439479248</v>
+        <v>9.849659316307893</v>
       </c>
       <c r="D21">
-        <v>5.847557277260013</v>
+        <v>3.654955093921989</v>
       </c>
       <c r="E21">
-        <v>12.86156514772628</v>
+        <v>12.05820751233921</v>
       </c>
       <c r="F21">
-        <v>30.97028884756993</v>
+        <v>29.60450419786653</v>
       </c>
       <c r="G21">
-        <v>40.71281815240228</v>
+        <v>42.65153829928173</v>
       </c>
       <c r="H21">
-        <v>16.70776244055754</v>
+        <v>11.8603618488042</v>
       </c>
       <c r="I21">
-        <v>27.72633545697896</v>
+        <v>23.6612969621953</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.1195256946042</v>
+        <v>28.25238203476</v>
       </c>
       <c r="L21">
-        <v>9.596714485004561</v>
+        <v>7.087574135485767</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.40326814663356</v>
+        <v>10.95640349323164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.898847513695772</v>
+        <v>10.16452197267653</v>
       </c>
       <c r="D22">
-        <v>5.841654161792867</v>
+        <v>3.629033001036654</v>
       </c>
       <c r="E22">
-        <v>12.92181147777152</v>
+        <v>12.42352231049933</v>
       </c>
       <c r="F22">
-        <v>31.0728666591127</v>
+        <v>30.51073575924258</v>
       </c>
       <c r="G22">
-        <v>40.90966930200562</v>
+        <v>44.08826410806605</v>
       </c>
       <c r="H22">
-        <v>16.69461800029943</v>
+        <v>12.05891141608009</v>
       </c>
       <c r="I22">
-        <v>27.76755785705884</v>
+        <v>24.28753366870853</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.49856622238605</v>
+        <v>29.31325234796203</v>
       </c>
       <c r="L22">
-        <v>9.604699185727235</v>
+        <v>7.233987268179227</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.36161686592473</v>
+        <v>10.80411720048328</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.862996495549082</v>
+        <v>9.99713921592785</v>
       </c>
       <c r="D23">
-        <v>5.844780362873681</v>
+        <v>3.642834713599949</v>
       </c>
       <c r="E23">
-        <v>12.88947526379994</v>
+        <v>12.22896647459176</v>
       </c>
       <c r="F23">
-        <v>31.01734627211694</v>
+        <v>30.02634610270297</v>
       </c>
       <c r="G23">
-        <v>40.8034671349035</v>
+        <v>43.32061089898166</v>
       </c>
       <c r="H23">
-        <v>16.70131182025839</v>
+        <v>11.95179975556954</v>
       </c>
       <c r="I23">
-        <v>27.74492115878796</v>
+        <v>23.95215137469404</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.29699876211776</v>
+        <v>28.75075701064255</v>
       </c>
       <c r="L23">
-        <v>9.60030105961518</v>
+        <v>7.155654235234328</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.38369453450821</v>
+        <v>10.88512416621392</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.729117381096158</v>
+        <v>9.348658782453574</v>
       </c>
       <c r="D24">
-        <v>5.857157884903623</v>
+        <v>3.695840586523294</v>
       </c>
       <c r="E24">
-        <v>12.77107061100033</v>
+        <v>11.48300541509905</v>
       </c>
       <c r="F24">
-        <v>30.82414692459832</v>
+        <v>28.20760226012057</v>
       </c>
       <c r="G24">
-        <v>40.42650934227894</v>
+        <v>40.4317467688411</v>
       </c>
       <c r="H24">
-        <v>16.73371534674715</v>
+        <v>11.57075040526615</v>
       </c>
       <c r="I24">
-        <v>27.67316917218137</v>
+        <v>22.70707315983157</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.51814808465963</v>
+        <v>26.53790033386608</v>
       </c>
       <c r="L24">
-        <v>9.586649813213967</v>
+        <v>6.863149344676812</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.47066350797549</v>
+        <v>11.19783249107818</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.589364369190893</v>
+        <v>8.618997600887717</v>
       </c>
       <c r="D25">
-        <v>5.871666712284545</v>
+        <v>3.754610219229169</v>
       </c>
       <c r="E25">
-        <v>12.65248492975291</v>
+        <v>10.6601555541534</v>
       </c>
       <c r="F25">
-        <v>30.6527899744322</v>
+        <v>26.28143196193465</v>
       </c>
       <c r="G25">
-        <v>40.07527796442373</v>
+        <v>37.3573431086951</v>
       </c>
       <c r="H25">
-        <v>16.78363837230005</v>
+        <v>11.20938790624241</v>
       </c>
       <c r="I25">
-        <v>27.62572062347501</v>
+        <v>21.41796843018195</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.64962836078432</v>
+        <v>23.96894056030694</v>
       </c>
       <c r="L25">
-        <v>9.578381454836716</v>
+        <v>6.556728246336219</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.57167137346439</v>
+        <v>11.54756358145697</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.057433340741426</v>
+        <v>3.967204071779955</v>
       </c>
       <c r="D2">
-        <v>3.799321497110406</v>
+        <v>4.122083750287217</v>
       </c>
       <c r="E2">
-        <v>10.0408104546342</v>
+        <v>13.12388976415293</v>
       </c>
       <c r="F2">
-        <v>24.89777786269118</v>
+        <v>24.04217327028735</v>
       </c>
       <c r="G2">
-        <v>35.13555516250341</v>
+        <v>33.45698220334242</v>
       </c>
       <c r="H2">
-        <v>10.98296835419019</v>
+        <v>2.014313287965367</v>
       </c>
       <c r="I2">
-        <v>20.51627257493691</v>
+        <v>3.602705739818922</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.82355086920852</v>
       </c>
       <c r="K2">
-        <v>21.91518197432205</v>
+        <v>18.77992850841947</v>
       </c>
       <c r="L2">
-        <v>6.339291906025586</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.95843464994201</v>
       </c>
       <c r="N2">
-        <v>11.81577370606923</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.93448509673158</v>
+      </c>
+      <c r="P2">
+        <v>12.20129263844643</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.663066813339668</v>
+        <v>3.717233315218242</v>
       </c>
       <c r="D3">
-        <v>3.830568251605674</v>
+        <v>4.058938792675875</v>
       </c>
       <c r="E3">
-        <v>9.614404347123582</v>
+        <v>12.43477207550946</v>
       </c>
       <c r="F3">
-        <v>23.98480057733779</v>
+        <v>23.12542561226715</v>
       </c>
       <c r="G3">
-        <v>33.66129805631579</v>
+        <v>32.01488229701391</v>
       </c>
       <c r="H3">
-        <v>10.85262752065972</v>
+        <v>1.785813562456736</v>
       </c>
       <c r="I3">
-        <v>19.93576861091298</v>
+        <v>3.380462392877464</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.64589524842332</v>
       </c>
       <c r="K3">
-        <v>20.41950177542069</v>
+        <v>18.21233635991052</v>
       </c>
       <c r="L3">
-        <v>6.197314792591527</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.73331657027671</v>
       </c>
       <c r="N3">
-        <v>12.00429533542676</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.88229696815716</v>
+      </c>
+      <c r="P3">
+        <v>12.34628517976207</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.414772355952093</v>
+        <v>3.551917744111388</v>
       </c>
       <c r="D4">
-        <v>3.850238606597492</v>
+        <v>4.018894512686022</v>
       </c>
       <c r="E4">
-        <v>9.350076471615699</v>
+        <v>11.99229350539592</v>
       </c>
       <c r="F4">
-        <v>23.43775433916529</v>
+        <v>22.55324973913379</v>
       </c>
       <c r="G4">
-        <v>32.77397195057588</v>
+        <v>31.10796319084492</v>
       </c>
       <c r="H4">
-        <v>10.78341346474751</v>
+        <v>1.640729216525012</v>
       </c>
       <c r="I4">
-        <v>19.59479395279464</v>
+        <v>3.239602301617994</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.53864809979205</v>
       </c>
       <c r="K4">
-        <v>19.44912304276461</v>
+        <v>17.85794477616708</v>
       </c>
       <c r="L4">
-        <v>6.112904344853384</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.93525890743582</v>
       </c>
       <c r="N4">
-        <v>12.12341751092737</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.2023406707698</v>
+      </c>
+      <c r="P4">
+        <v>12.43695397909516</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.312164134157915</v>
+        <v>3.470181445578284</v>
       </c>
       <c r="D5">
-        <v>3.85837918152941</v>
+        <v>4.00324467265368</v>
       </c>
       <c r="E5">
-        <v>9.241867472037111</v>
+        <v>11.80830128868547</v>
       </c>
       <c r="F5">
-        <v>23.21844993331804</v>
+        <v>22.30643829942022</v>
       </c>
       <c r="G5">
-        <v>32.41727773785308</v>
+        <v>30.71225912414973</v>
       </c>
       <c r="H5">
-        <v>10.75783702201505</v>
+        <v>1.580099511775535</v>
       </c>
       <c r="I5">
-        <v>19.45978652935764</v>
+        <v>3.181031717203379</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.49154744360474</v>
       </c>
       <c r="K5">
-        <v>19.0404904383849</v>
+        <v>17.70028702577356</v>
       </c>
       <c r="L5">
-        <v>6.079219060054644</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.59387752737372</v>
       </c>
       <c r="N5">
-        <v>12.17281424771333</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.91478660843586</v>
+      </c>
+      <c r="P5">
+        <v>12.4744875334426</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.295043927360082</v>
+        <v>3.442558080742817</v>
       </c>
       <c r="D6">
-        <v>3.859738539036727</v>
+        <v>4.001837787758383</v>
       </c>
       <c r="E6">
-        <v>9.223874070440766</v>
+        <v>11.77884811985326</v>
       </c>
       <c r="F6">
-        <v>23.1822599229951</v>
+        <v>22.2511359212553</v>
       </c>
       <c r="G6">
-        <v>32.35835714479249</v>
+        <v>30.62034778484961</v>
       </c>
       <c r="H6">
-        <v>10.75374609088101</v>
+        <v>1.569612675739302</v>
       </c>
       <c r="I6">
-        <v>19.43760823117002</v>
+        <v>3.171360814232665</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.47901448263701</v>
       </c>
       <c r="K6">
-        <v>18.9718371085308</v>
+        <v>17.65944709034646</v>
       </c>
       <c r="L6">
-        <v>6.073669192345502</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.53084517402618</v>
       </c>
       <c r="N6">
-        <v>12.18106828872219</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.86402788405191</v>
+      </c>
+      <c r="P6">
+        <v>12.48095209888506</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.413394144958539</v>
+        <v>3.51370826474014</v>
       </c>
       <c r="D7">
-        <v>3.850347884235331</v>
+        <v>4.022001061784878</v>
       </c>
       <c r="E7">
-        <v>9.348618927551566</v>
+        <v>11.99355235131171</v>
       </c>
       <c r="F7">
-        <v>23.43478176276192</v>
+        <v>22.51160295615764</v>
       </c>
       <c r="G7">
-        <v>32.76914105869601</v>
+        <v>31.03284452536234</v>
       </c>
       <c r="H7">
-        <v>10.78305801165654</v>
+        <v>1.638983622749225</v>
       </c>
       <c r="I7">
-        <v>19.59295716458979</v>
+        <v>3.238839974590367</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.52512538045605</v>
       </c>
       <c r="K7">
-        <v>19.44366565520357</v>
+        <v>17.81634460194084</v>
       </c>
       <c r="L7">
-        <v>6.112447144817716</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.9156182179625</v>
       </c>
       <c r="N7">
-        <v>12.12408022781855</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.19179236018823</v>
+      </c>
+      <c r="P7">
+        <v>12.4380892018661</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.922798381842393</v>
+        <v>3.837775293180072</v>
       </c>
       <c r="D8">
-        <v>3.809996439259569</v>
+        <v>4.105011165144699</v>
       </c>
       <c r="E8">
-        <v>9.894384448262992</v>
+        <v>12.89495963100037</v>
       </c>
       <c r="F8">
-        <v>24.58030442914187</v>
+        <v>23.67966090439603</v>
       </c>
       <c r="G8">
-        <v>34.62375298910369</v>
+        <v>32.87663938024297</v>
       </c>
       <c r="H8">
-        <v>10.93572896079654</v>
+        <v>1.935309667209254</v>
       </c>
       <c r="I8">
-        <v>20.31294188793129</v>
+        <v>3.526551797636873</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.74519653994552</v>
       </c>
       <c r="K8">
-        <v>21.41019953990684</v>
+        <v>18.53503156054807</v>
       </c>
       <c r="L8">
-        <v>6.289775085750146</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.52698632206739</v>
       </c>
       <c r="N8">
-        <v>11.88008019049954</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.57050504872283</v>
+      </c>
+      <c r="P8">
+        <v>12.25208140571819</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.868704081630643</v>
+        <v>4.440363922916467</v>
       </c>
       <c r="D9">
-        <v>3.734595476298654</v>
+        <v>4.251549655712068</v>
       </c>
       <c r="E9">
-        <v>10.93961337144018</v>
+        <v>14.50125725276439</v>
       </c>
       <c r="F9">
-        <v>26.92523893935076</v>
+        <v>25.94939484250184</v>
       </c>
       <c r="G9">
-        <v>38.38701054671179</v>
+        <v>36.42141787691361</v>
       </c>
       <c r="H9">
-        <v>11.32474616579097</v>
+        <v>2.481039498621983</v>
       </c>
       <c r="I9">
-        <v>21.84493995561768</v>
+        <v>4.057883771167767</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.21299028175994</v>
       </c>
       <c r="K9">
-        <v>24.85913799240874</v>
+        <v>19.95855614250167</v>
       </c>
       <c r="L9">
-        <v>6.658707491277162</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.34893435979041</v>
       </c>
       <c r="N9">
-        <v>11.42809909031075</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.01263862116838</v>
+      </c>
+      <c r="P9">
+        <v>11.898334412042</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.527093805811045</v>
+        <v>4.832755007901871</v>
       </c>
       <c r="D10">
-        <v>3.681330266842405</v>
+        <v>4.370249431150243</v>
       </c>
       <c r="E10">
-        <v>11.68697672745486</v>
+        <v>15.09398919808256</v>
       </c>
       <c r="F10">
-        <v>28.69855472866243</v>
+        <v>27.38859839905114</v>
       </c>
       <c r="G10">
-        <v>41.21271024381507</v>
+        <v>38.6019226883351</v>
       </c>
       <c r="H10">
-        <v>11.67012703034929</v>
+        <v>2.836848367533398</v>
       </c>
       <c r="I10">
-        <v>23.04079170725882</v>
+        <v>4.422778496176929</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.50398662582635</v>
       </c>
       <c r="K10">
-        <v>27.1525660551127</v>
+        <v>20.84146182676346</v>
       </c>
       <c r="L10">
-        <v>6.941836313597355</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.18315605218361</v>
       </c>
       <c r="N10">
-        <v>11.11197416032203</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.34617934647623</v>
+      </c>
+      <c r="P10">
+        <v>11.65645818978876</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.818144666610859</v>
+        <v>5.126226827496156</v>
       </c>
       <c r="D11">
-        <v>3.657540110039695</v>
+        <v>4.577213911294749</v>
       </c>
       <c r="E11">
-        <v>12.02180061032893</v>
+        <v>11.43615063394324</v>
       </c>
       <c r="F11">
-        <v>29.51497350728322</v>
+        <v>26.71354145194373</v>
       </c>
       <c r="G11">
-        <v>42.50946652830827</v>
+        <v>37.22460305412254</v>
       </c>
       <c r="H11">
-        <v>11.8411828150141</v>
+        <v>3.455754156866406</v>
       </c>
       <c r="I11">
-        <v>23.59971884177111</v>
+        <v>4.534193203626736</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.15006110847943</v>
       </c>
       <c r="K11">
-        <v>28.1455350438635</v>
+        <v>20.27116056555011</v>
       </c>
       <c r="L11">
-        <v>7.073142267690271</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.82764743547946</v>
       </c>
       <c r="N11">
-        <v>10.97162296854069</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.43625135093702</v>
+      </c>
+      <c r="P11">
+        <v>11.67036165926204</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.92711956112394</v>
+        <v>5.351608206545785</v>
       </c>
       <c r="D12">
-        <v>3.648593908445358</v>
+        <v>4.735988818560491</v>
       </c>
       <c r="E12">
-        <v>12.14781600655572</v>
+        <v>8.96294575801342</v>
       </c>
       <c r="F12">
-        <v>29.82548145593534</v>
+        <v>25.87684718885471</v>
       </c>
       <c r="G12">
-        <v>43.00209063761515</v>
+        <v>35.6715349188402</v>
       </c>
       <c r="H12">
-        <v>11.90804214026568</v>
+        <v>4.527297728852228</v>
       </c>
       <c r="I12">
-        <v>23.81351222886236</v>
+        <v>4.557876435820726</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.80072686097031</v>
       </c>
       <c r="K12">
-        <v>28.51447371719705</v>
+        <v>19.64734973838672</v>
       </c>
       <c r="L12">
-        <v>7.123220624116669</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>24.01896901582514</v>
       </c>
       <c r="N12">
-        <v>10.91897721467811</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.53883661955733</v>
+      </c>
+      <c r="P12">
+        <v>11.76620082464207</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.9037052300661</v>
+        <v>5.500625606906498</v>
       </c>
       <c r="D13">
-        <v>3.650517851203746</v>
+        <v>4.871056981497009</v>
       </c>
       <c r="E13">
-        <v>12.12071113649778</v>
+        <v>7.894272556750996</v>
       </c>
       <c r="F13">
-        <v>29.75854832959606</v>
+        <v>24.78993134885034</v>
       </c>
       <c r="G13">
-        <v>42.89592533203824</v>
+        <v>33.75142396149406</v>
       </c>
       <c r="H13">
-        <v>11.8935488043326</v>
+        <v>5.740413857481314</v>
       </c>
       <c r="I13">
-        <v>23.76737264232599</v>
+        <v>4.515658175109304</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.4103211385268</v>
       </c>
       <c r="K13">
-        <v>28.43532826708669</v>
+        <v>18.87682245109202</v>
       </c>
       <c r="L13">
-        <v>7.112419560479637</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.86220334378455</v>
       </c>
       <c r="N13">
-        <v>10.93029295956579</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.47244019874818</v>
+      </c>
+      <c r="P13">
+        <v>11.92403415289233</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.827135027816452</v>
+        <v>5.564757158562505</v>
       </c>
       <c r="D14">
-        <v>3.65680284707891</v>
+        <v>4.95723948315709</v>
       </c>
       <c r="E14">
-        <v>12.0321836304043</v>
+        <v>8.292620669125546</v>
       </c>
       <c r="F14">
-        <v>29.54049227922214</v>
+        <v>23.89430408352271</v>
       </c>
       <c r="G14">
-        <v>42.54996354560741</v>
+        <v>32.2008388120747</v>
       </c>
       <c r="H14">
-        <v>11.84664113875431</v>
+        <v>6.638340803468358</v>
       </c>
       <c r="I14">
-        <v>23.61726480866256</v>
+        <v>4.457010733905986</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.11386904022905</v>
       </c>
       <c r="K14">
-        <v>28.17602873255559</v>
+        <v>18.25483620525307</v>
       </c>
       <c r="L14">
-        <v>7.077255126814512</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>23.58992970670118</v>
       </c>
       <c r="N14">
-        <v>10.96728166217851</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.92232976951041</v>
+      </c>
+      <c r="P14">
+        <v>12.06366879595216</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.780071657619496</v>
+        <v>5.550642911688309</v>
       </c>
       <c r="D15">
-        <v>3.660660734837232</v>
+        <v>4.973352984422609</v>
       </c>
       <c r="E15">
-        <v>11.97785636798799</v>
+        <v>8.5192555187691</v>
       </c>
       <c r="F15">
-        <v>29.40710154415706</v>
+        <v>23.6094283543866</v>
       </c>
       <c r="G15">
-        <v>42.33825630882679</v>
+        <v>31.71981930385713</v>
       </c>
       <c r="H15">
-        <v>11.81818265723368</v>
+        <v>6.843357143735745</v>
       </c>
       <c r="I15">
-        <v>23.52559835567433</v>
+        <v>4.42812171927495</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.0294627914029</v>
       </c>
       <c r="K15">
-        <v>28.01628355570881</v>
+        <v>18.05899073216887</v>
       </c>
       <c r="L15">
-        <v>7.055762149816413</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>23.44310562854039</v>
       </c>
       <c r="N15">
-        <v>10.99000393243032</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.50274744395694</v>
+      </c>
+      <c r="P15">
+        <v>12.10681085144138</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.507900428758226</v>
+        <v>5.353451237751978</v>
       </c>
       <c r="D16">
-        <v>3.682893793546158</v>
+        <v>4.89777930041807</v>
       </c>
       <c r="E16">
-        <v>11.66498811403102</v>
+        <v>8.3183464865795</v>
       </c>
       <c r="F16">
-        <v>28.64539008439392</v>
+        <v>23.13296632946004</v>
       </c>
       <c r="G16">
-        <v>41.12818511229186</v>
+        <v>31.02088444599257</v>
       </c>
       <c r="H16">
-        <v>11.65923542081656</v>
+        <v>6.569740776008286</v>
       </c>
       <c r="I16">
-        <v>23.00456370738005</v>
+        <v>4.282638548795756</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.966086412364742</v>
       </c>
       <c r="K16">
-        <v>27.08667392007745</v>
+        <v>17.78287734774967</v>
       </c>
       <c r="L16">
-        <v>6.933305088774613</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.70855617930112</v>
       </c>
       <c r="N16">
-        <v>11.1212163450701</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.21036479883062</v>
+      </c>
+      <c r="P16">
+        <v>12.15919314599201</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.338744978872898</v>
+        <v>5.160296437999087</v>
       </c>
       <c r="D17">
-        <v>3.696645118186233</v>
+        <v>4.792186050309595</v>
       </c>
       <c r="E17">
-        <v>11.47170276233938</v>
+        <v>7.751869000278451</v>
       </c>
       <c r="F17">
-        <v>28.18054429764836</v>
+        <v>23.26090769650059</v>
       </c>
       <c r="G17">
-        <v>40.38867778837471</v>
+        <v>31.34221127892854</v>
       </c>
       <c r="H17">
-        <v>11.56535317186694</v>
+        <v>5.832134587018096</v>
       </c>
       <c r="I17">
-        <v>22.68873621903285</v>
+        <v>4.201551368673569</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.07795833131878</v>
       </c>
       <c r="K17">
-        <v>26.50360932679038</v>
+        <v>17.91040683488258</v>
       </c>
       <c r="L17">
-        <v>6.858818990674437</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>22.28358724337607</v>
       </c>
       <c r="N17">
-        <v>11.20259860915652</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.84678144634072</v>
+      </c>
+      <c r="P17">
+        <v>12.12725045291942</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.240655963506017</v>
+        <v>4.982664190406106</v>
       </c>
       <c r="D18">
-        <v>3.70459597633237</v>
+        <v>4.650445692732944</v>
       </c>
       <c r="E18">
-        <v>11.36004563718722</v>
+        <v>7.866018006847521</v>
       </c>
       <c r="F18">
-        <v>27.91409304453327</v>
+        <v>23.94816748252892</v>
       </c>
       <c r="G18">
-        <v>39.96439737102367</v>
+        <v>32.62482137152653</v>
       </c>
       <c r="H18">
-        <v>11.51266195247462</v>
+        <v>4.662856362224583</v>
       </c>
       <c r="I18">
-        <v>22.5084846664572</v>
+        <v>4.168988214213029</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.36030568182448</v>
       </c>
       <c r="K18">
-        <v>26.16349918027817</v>
+        <v>18.42664083236266</v>
       </c>
       <c r="L18">
-        <v>6.816212752371185</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>22.09928155397096</v>
       </c>
       <c r="N18">
-        <v>11.24973227837141</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.36863833579831</v>
+      </c>
+      <c r="P18">
+        <v>12.03070152747867</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.207309101159089</v>
+        <v>4.782226448226803</v>
       </c>
       <c r="D19">
-        <v>3.707295155271807</v>
+        <v>4.507646481215156</v>
       </c>
       <c r="E19">
-        <v>11.32215859544982</v>
+        <v>9.872805200045335</v>
       </c>
       <c r="F19">
-        <v>27.82403688757369</v>
+        <v>24.95831763049576</v>
       </c>
       <c r="G19">
-        <v>39.8209294175884</v>
+        <v>34.44969679675788</v>
       </c>
       <c r="H19">
-        <v>11.49504374669076</v>
+        <v>3.422459978039146</v>
       </c>
       <c r="I19">
-        <v>22.44769637396956</v>
+        <v>4.184355290341838</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.73480096778872</v>
       </c>
       <c r="K19">
-        <v>26.04752379298879</v>
+        <v>19.14517337513814</v>
       </c>
       <c r="L19">
-        <v>6.801827822490678</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>22.10438273031928</v>
       </c>
       <c r="N19">
-        <v>11.26574660166135</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.46106752999436</v>
+      </c>
+      <c r="P19">
+        <v>11.9151576806844</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.356834395502881</v>
+        <v>4.644122012925723</v>
       </c>
       <c r="D20">
-        <v>3.695176982916794</v>
+        <v>4.350908264191099</v>
       </c>
       <c r="E20">
-        <v>11.49232877033352</v>
+        <v>14.92725954678652</v>
       </c>
       <c r="F20">
-        <v>28.22993368000862</v>
+        <v>26.90638710581321</v>
       </c>
       <c r="G20">
-        <v>40.46729013149785</v>
+        <v>37.84362041687579</v>
       </c>
       <c r="H20">
-        <v>11.57521121798988</v>
+        <v>2.739841261452684</v>
       </c>
       <c r="I20">
-        <v>22.7222114135304</v>
+        <v>4.328743996480116</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.38741117194331</v>
       </c>
       <c r="K20">
-        <v>26.56616770844356</v>
+        <v>20.49904009282722</v>
       </c>
       <c r="L20">
-        <v>6.866723772191829</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.67837248999394</v>
       </c>
       <c r="N20">
-        <v>11.19390169190966</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.97506999440633</v>
+      </c>
+      <c r="P20">
+        <v>11.72409221063173</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.849659316307893</v>
+        <v>4.923193004633171</v>
       </c>
       <c r="D21">
-        <v>3.654955093921989</v>
+        <v>4.413187400747539</v>
       </c>
       <c r="E21">
-        <v>12.05820751233921</v>
+        <v>16.1181035761687</v>
       </c>
       <c r="F21">
-        <v>29.60450419786653</v>
+        <v>28.24148922519928</v>
       </c>
       <c r="G21">
-        <v>42.65153829928173</v>
+        <v>39.92579612981714</v>
       </c>
       <c r="H21">
-        <v>11.8603618488042</v>
+        <v>3.045114574739683</v>
       </c>
       <c r="I21">
-        <v>23.6612969621953</v>
+        <v>4.612824065627003</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.70539184564682</v>
       </c>
       <c r="K21">
-        <v>28.25238203476</v>
+        <v>21.35244165640728</v>
       </c>
       <c r="L21">
-        <v>7.087574135485767</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>24.05075278510151</v>
       </c>
       <c r="N21">
-        <v>10.95640349323164</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.39984509019323</v>
+      </c>
+      <c r="P21">
+        <v>11.52465833791937</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.16452197267653</v>
+        <v>5.139809070422978</v>
       </c>
       <c r="D22">
-        <v>3.629033001036654</v>
+        <v>4.456402202814115</v>
       </c>
       <c r="E22">
-        <v>12.42352231049933</v>
+        <v>16.62020717183523</v>
       </c>
       <c r="F22">
-        <v>30.51073575924258</v>
+        <v>29.06317914106544</v>
       </c>
       <c r="G22">
-        <v>44.08826410806605</v>
+        <v>41.19367852338869</v>
       </c>
       <c r="H22">
-        <v>12.05891141608009</v>
+        <v>3.22945548484934</v>
       </c>
       <c r="I22">
-        <v>24.28753366870853</v>
+        <v>4.792061209549557</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.90144681622159</v>
       </c>
       <c r="K22">
-        <v>29.31325234796203</v>
+        <v>21.88945800372096</v>
       </c>
       <c r="L22">
-        <v>7.233987268179227</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.91525826590082</v>
       </c>
       <c r="N22">
-        <v>10.80411720048328</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.15688317513588</v>
+      </c>
+      <c r="P22">
+        <v>11.3984993713303</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.99713921592785</v>
+        <v>5.056975328743841</v>
       </c>
       <c r="D23">
-        <v>3.642834713599949</v>
+        <v>4.429443703317511</v>
       </c>
       <c r="E23">
-        <v>12.22896647459176</v>
+        <v>16.35046857547323</v>
       </c>
       <c r="F23">
-        <v>30.02634610270297</v>
+        <v>28.66268280561555</v>
       </c>
       <c r="G23">
-        <v>43.32061089898166</v>
+        <v>40.58481173963197</v>
       </c>
       <c r="H23">
-        <v>11.95179975556954</v>
+        <v>3.132353262142786</v>
       </c>
       <c r="I23">
-        <v>23.95215137469404</v>
+        <v>4.696318673660414</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.81044235067579</v>
       </c>
       <c r="K23">
-        <v>28.75075701064255</v>
+        <v>21.64314935390697</v>
       </c>
       <c r="L23">
-        <v>7.155654235234328</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.47056308792864</v>
       </c>
       <c r="N23">
-        <v>10.88512416621392</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.76164152069731</v>
+      </c>
+      <c r="P23">
+        <v>11.46391937453486</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.348658782453574</v>
+        <v>4.676289018447908</v>
       </c>
       <c r="D24">
-        <v>3.695840586523294</v>
+        <v>4.331109141173528</v>
       </c>
       <c r="E24">
-        <v>11.48300541509905</v>
+        <v>15.29901170520586</v>
       </c>
       <c r="F24">
-        <v>28.20760226012057</v>
+        <v>27.06108179145194</v>
       </c>
       <c r="G24">
-        <v>40.4317467688411</v>
+        <v>38.12484710051338</v>
       </c>
       <c r="H24">
-        <v>11.57075040526615</v>
+        <v>2.756369157943016</v>
       </c>
       <c r="I24">
-        <v>22.70707315983157</v>
+        <v>4.328051627464599</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.44693181317699</v>
       </c>
       <c r="K24">
-        <v>26.53790033386608</v>
+        <v>20.63212082765993</v>
       </c>
       <c r="L24">
-        <v>6.863149344676812</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.68866879701346</v>
       </c>
       <c r="N24">
-        <v>11.19783249107818</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.19365524277222</v>
+      </c>
+      <c r="P24">
+        <v>11.71694574140008</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.618997600887717</v>
+        <v>4.230669773601059</v>
       </c>
       <c r="D25">
-        <v>3.754610219229169</v>
+        <v>4.219144298679788</v>
       </c>
       <c r="E25">
-        <v>10.6601555541534</v>
+        <v>14.0893271177337</v>
       </c>
       <c r="F25">
-        <v>26.28143196193465</v>
+        <v>25.28379687977873</v>
       </c>
       <c r="G25">
-        <v>37.3573431086951</v>
+        <v>35.37292920209727</v>
       </c>
       <c r="H25">
-        <v>11.20938790624241</v>
+        <v>2.335639800429519</v>
       </c>
       <c r="I25">
-        <v>21.41796843018195</v>
+        <v>3.917640841543844</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.06289085980081</v>
       </c>
       <c r="K25">
-        <v>23.96894056030694</v>
+        <v>19.51438195884308</v>
       </c>
       <c r="L25">
-        <v>6.556728246336219</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.601046843495</v>
       </c>
       <c r="N25">
-        <v>11.54756358145697</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>19.37114827194972</v>
+      </c>
+      <c r="P25">
+        <v>11.99479423963646</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.967204071779955</v>
+        <v>2.551536210605899</v>
       </c>
       <c r="D2">
-        <v>4.122083750287217</v>
+        <v>4.288781607822685</v>
       </c>
       <c r="E2">
-        <v>13.12388976415293</v>
+        <v>13.25824414846297</v>
       </c>
       <c r="F2">
-        <v>24.04217327028735</v>
+        <v>22.54385898953495</v>
       </c>
       <c r="G2">
-        <v>33.45698220334242</v>
+        <v>30.22077754437754</v>
       </c>
       <c r="H2">
-        <v>2.014313287965367</v>
+        <v>1.971556040546344</v>
       </c>
       <c r="I2">
-        <v>3.602705739818922</v>
+        <v>3.533158948971645</v>
       </c>
       <c r="J2">
-        <v>10.82355086920852</v>
+        <v>10.78490891575696</v>
       </c>
       <c r="K2">
-        <v>18.77992850841947</v>
+        <v>17.18734928137757</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.97016407217588</v>
       </c>
       <c r="M2">
-        <v>18.95843464994201</v>
+        <v>10.85740148099092</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.93448509673158</v>
+        <v>18.37407693805354</v>
       </c>
       <c r="P2">
-        <v>12.20129263844643</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.67511003703778</v>
+      </c>
+      <c r="R2">
+        <v>12.26313672298778</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.717233315218242</v>
+        <v>2.383636307196262</v>
       </c>
       <c r="D3">
-        <v>4.058938792675875</v>
+        <v>4.187693439508889</v>
       </c>
       <c r="E3">
-        <v>12.43477207550946</v>
+        <v>12.57416036285757</v>
       </c>
       <c r="F3">
-        <v>23.12542561226715</v>
+        <v>21.79701403416067</v>
       </c>
       <c r="G3">
-        <v>32.01488229701391</v>
+        <v>29.08191604464608</v>
       </c>
       <c r="H3">
-        <v>1.785813562456736</v>
+        <v>1.757266817844487</v>
       </c>
       <c r="I3">
-        <v>3.380462392877464</v>
+        <v>3.347534752008627</v>
       </c>
       <c r="J3">
-        <v>10.64589524842332</v>
+        <v>10.63603377514821</v>
       </c>
       <c r="K3">
-        <v>18.21233635991052</v>
+        <v>16.79266027929325</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.8824406961767</v>
       </c>
       <c r="M3">
-        <v>17.73331657027671</v>
+        <v>10.28853656111651</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.88229696815716</v>
+        <v>17.22418573390119</v>
       </c>
       <c r="P3">
-        <v>12.34628517976207</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.65348409972659</v>
+      </c>
+      <c r="R3">
+        <v>12.38146355898168</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.551917744111388</v>
+        <v>2.275651483449685</v>
       </c>
       <c r="D4">
-        <v>4.018894512686022</v>
+        <v>4.124004722589345</v>
       </c>
       <c r="E4">
-        <v>11.99229350539592</v>
+        <v>12.13521825694269</v>
       </c>
       <c r="F4">
-        <v>22.55324973913379</v>
+        <v>21.33134545223101</v>
       </c>
       <c r="G4">
-        <v>31.10796319084492</v>
+        <v>28.37010319267789</v>
       </c>
       <c r="H4">
-        <v>1.640729216525012</v>
+        <v>1.621072060357899</v>
       </c>
       <c r="I4">
-        <v>3.239602301617994</v>
+        <v>3.229877083934658</v>
       </c>
       <c r="J4">
-        <v>10.53864809979205</v>
+        <v>10.54392818975286</v>
       </c>
       <c r="K4">
-        <v>17.85794477616708</v>
+        <v>16.54569749415294</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.8220174117428</v>
       </c>
       <c r="M4">
-        <v>16.93525890743582</v>
+        <v>9.94723410061823</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.2023406707698</v>
+        <v>16.47491001034156</v>
       </c>
       <c r="P4">
-        <v>12.43695397909516</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.99301982705143</v>
+      </c>
+      <c r="R4">
+        <v>12.45636482630278</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.470181445578284</v>
+        <v>2.22259205570212</v>
       </c>
       <c r="D5">
-        <v>4.00324467265368</v>
+        <v>4.098822552248301</v>
       </c>
       <c r="E5">
-        <v>11.80830128868547</v>
+        <v>11.95281308162107</v>
       </c>
       <c r="F5">
-        <v>22.30643829942022</v>
+        <v>21.12915660716929</v>
       </c>
       <c r="G5">
-        <v>30.71225912414973</v>
+        <v>28.05722913394171</v>
       </c>
       <c r="H5">
-        <v>1.580099511775535</v>
+        <v>1.564143760812543</v>
       </c>
       <c r="I5">
-        <v>3.181031717203379</v>
+        <v>3.181254000604016</v>
       </c>
       <c r="J5">
-        <v>10.49154744360474</v>
+        <v>10.50268815057379</v>
       </c>
       <c r="K5">
-        <v>17.70028702577356</v>
+        <v>16.43310575087142</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.78724397561569</v>
       </c>
       <c r="M5">
-        <v>16.59387752737372</v>
+        <v>9.802651973040746</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.91478660843586</v>
+        <v>16.15434800148384</v>
       </c>
       <c r="P5">
-        <v>12.4744875334426</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.7137014776903</v>
+      </c>
+      <c r="R5">
+        <v>12.48779282941791</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.442558080742817</v>
+        <v>2.204312436136336</v>
       </c>
       <c r="D6">
-        <v>4.001837787758383</v>
+        <v>4.096048289764458</v>
       </c>
       <c r="E6">
-        <v>11.77884811985326</v>
+        <v>11.9236457360816</v>
       </c>
       <c r="F6">
-        <v>22.2511359212553</v>
+        <v>21.08221907927537</v>
       </c>
       <c r="G6">
-        <v>30.62034778484961</v>
+        <v>27.98069329726513</v>
       </c>
       <c r="H6">
-        <v>1.569612675739302</v>
+        <v>1.566966100316782</v>
       </c>
       <c r="I6">
-        <v>3.171360814232665</v>
+        <v>3.173657204078062</v>
       </c>
       <c r="J6">
-        <v>10.47901448263701</v>
+        <v>10.49149059812088</v>
       </c>
       <c r="K6">
-        <v>17.65944709034646</v>
+        <v>16.40105410291622</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.77100890057839</v>
       </c>
       <c r="M6">
-        <v>16.53084517402618</v>
+        <v>9.768797634718021</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.86402788405191</v>
+        <v>16.09514594582335</v>
       </c>
       <c r="P6">
-        <v>12.48095209888506</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.66445426096399</v>
+      </c>
+      <c r="R6">
+        <v>12.49347067814649</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.51370826474014</v>
+        <v>2.254140903817709</v>
       </c>
       <c r="D7">
-        <v>4.022001061784878</v>
+        <v>4.12995270345418</v>
       </c>
       <c r="E7">
-        <v>11.99355235131171</v>
+        <v>12.1388989011963</v>
       </c>
       <c r="F7">
-        <v>22.51160295615764</v>
+        <v>21.27092042156622</v>
       </c>
       <c r="G7">
-        <v>31.03284452536234</v>
+        <v>28.3853297896778</v>
       </c>
       <c r="H7">
-        <v>1.638983622749225</v>
+        <v>1.619016324244372</v>
       </c>
       <c r="I7">
-        <v>3.238839974590367</v>
+        <v>3.229576219015347</v>
       </c>
       <c r="J7">
-        <v>10.52512538045605</v>
+        <v>10.47964094856497</v>
       </c>
       <c r="K7">
-        <v>17.81634460194084</v>
+        <v>16.49410983113171</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.78298637083405</v>
       </c>
       <c r="M7">
-        <v>16.9156182179625</v>
+        <v>9.906972382875438</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.19179236018823</v>
+        <v>16.44781883894783</v>
       </c>
       <c r="P7">
-        <v>12.4380892018661</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.97907522622125</v>
+      </c>
+      <c r="R7">
+        <v>12.45876626195862</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.837775293180072</v>
+        <v>2.477430919112821</v>
       </c>
       <c r="D8">
-        <v>4.105011165144699</v>
+        <v>4.267404834065432</v>
       </c>
       <c r="E8">
-        <v>12.89495963100037</v>
+        <v>13.03856224576979</v>
       </c>
       <c r="F8">
-        <v>23.67966090439603</v>
+        <v>22.17294454482094</v>
       </c>
       <c r="G8">
-        <v>32.87663938024297</v>
+        <v>30.01883171466357</v>
       </c>
       <c r="H8">
-        <v>1.935309667209254</v>
+        <v>1.896094424525664</v>
       </c>
       <c r="I8">
-        <v>3.526551797636873</v>
+        <v>3.468537002573172</v>
       </c>
       <c r="J8">
-        <v>10.74519653994552</v>
+        <v>10.54990248424355</v>
       </c>
       <c r="K8">
-        <v>18.53503156054807</v>
+        <v>16.9609702053595</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.87325678176942</v>
       </c>
       <c r="M8">
-        <v>18.52698632206739</v>
+        <v>10.58791873869175</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.57050504872283</v>
+        <v>17.94265069852993</v>
       </c>
       <c r="P8">
-        <v>12.25208140571819</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.31002146238198</v>
+      </c>
+      <c r="R8">
+        <v>12.30844679643745</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.440363922916467</v>
+        <v>2.90049267254941</v>
       </c>
       <c r="D9">
-        <v>4.251549655712068</v>
+        <v>4.507669359877837</v>
       </c>
       <c r="E9">
-        <v>14.50125725276439</v>
+        <v>14.63515598771796</v>
       </c>
       <c r="F9">
-        <v>25.94939484250184</v>
+        <v>24.01845663042413</v>
       </c>
       <c r="G9">
-        <v>36.42141787691361</v>
+        <v>32.90353372965954</v>
       </c>
       <c r="H9">
-        <v>2.481039498621983</v>
+        <v>2.40672820400164</v>
       </c>
       <c r="I9">
-        <v>4.057883771167767</v>
+        <v>3.910632103981195</v>
       </c>
       <c r="J9">
-        <v>11.21299028175994</v>
+        <v>10.89060006201392</v>
       </c>
       <c r="K9">
-        <v>19.95855614250167</v>
+        <v>17.95008412014919</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.08398832288186</v>
       </c>
       <c r="M9">
-        <v>21.34893435979041</v>
+        <v>12.05008929597118</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.01263862116838</v>
+        <v>20.58609733343152</v>
       </c>
       <c r="P9">
-        <v>11.898334412042</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.67772923881132</v>
+      </c>
+      <c r="R9">
+        <v>12.02620693604145</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.832755007901871</v>
+        <v>3.212490389865415</v>
       </c>
       <c r="D10">
-        <v>4.370249431150243</v>
+        <v>4.70886478386157</v>
       </c>
       <c r="E10">
-        <v>15.09398919808256</v>
+        <v>15.22387520814289</v>
       </c>
       <c r="F10">
-        <v>27.38859839905114</v>
+        <v>25.07125465616082</v>
       </c>
       <c r="G10">
-        <v>38.6019226883351</v>
+        <v>35.09015840494012</v>
       </c>
       <c r="H10">
-        <v>2.836848367533398</v>
+        <v>2.735955437247282</v>
       </c>
       <c r="I10">
-        <v>4.422778496176929</v>
+        <v>4.211271916681885</v>
       </c>
       <c r="J10">
-        <v>11.50398662582635</v>
+        <v>10.80949767628844</v>
       </c>
       <c r="K10">
-        <v>20.84146182676346</v>
+        <v>18.47357804537466</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.08599533655689</v>
       </c>
       <c r="M10">
-        <v>23.18315605218361</v>
+        <v>12.9750036270165</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.34617934647623</v>
+        <v>22.26749747168116</v>
       </c>
       <c r="P10">
-        <v>11.65645818978876</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.94544350570235</v>
+      </c>
+      <c r="R10">
+        <v>11.85464264915797</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.126226827496156</v>
+        <v>3.500727869258132</v>
       </c>
       <c r="D11">
-        <v>4.577213911294749</v>
+        <v>4.994915715403611</v>
       </c>
       <c r="E11">
-        <v>11.43615063394324</v>
+        <v>11.46606527647026</v>
       </c>
       <c r="F11">
-        <v>26.71354145194373</v>
+        <v>24.17755160281584</v>
       </c>
       <c r="G11">
-        <v>37.22460305412254</v>
+        <v>34.65279322599381</v>
       </c>
       <c r="H11">
-        <v>3.455754156866406</v>
+        <v>3.367827677459556</v>
       </c>
       <c r="I11">
-        <v>4.534193203626736</v>
+        <v>4.300424891833988</v>
       </c>
       <c r="J11">
-        <v>11.15006110847943</v>
+        <v>9.924179626917425</v>
       </c>
       <c r="K11">
-        <v>20.27116056555011</v>
+        <v>17.78034710808848</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.44124087925212</v>
       </c>
       <c r="M11">
-        <v>23.82764743547946</v>
+        <v>12.63953561888941</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.43625135093702</v>
+        <v>22.82507321790744</v>
       </c>
       <c r="P11">
-        <v>11.67036165926204</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.00385295944383</v>
+      </c>
+      <c r="R11">
+        <v>11.9704678815993</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.351608206545785</v>
+        <v>3.733385773397514</v>
       </c>
       <c r="D12">
-        <v>4.735988818560491</v>
+        <v>5.191668058060863</v>
       </c>
       <c r="E12">
-        <v>8.96294575801342</v>
+        <v>8.821184226255497</v>
       </c>
       <c r="F12">
-        <v>25.87684718885471</v>
+        <v>23.30000293331475</v>
       </c>
       <c r="G12">
-        <v>35.6715349188402</v>
+        <v>33.63552584356405</v>
       </c>
       <c r="H12">
-        <v>4.527297728852228</v>
+        <v>4.461589219874821</v>
       </c>
       <c r="I12">
-        <v>4.557876435820726</v>
+        <v>4.31807552452791</v>
       </c>
       <c r="J12">
-        <v>10.80072686097031</v>
+        <v>9.393631161204553</v>
       </c>
       <c r="K12">
-        <v>19.64734973838672</v>
+        <v>17.16996541806404</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.96400374920447</v>
       </c>
       <c r="M12">
-        <v>24.01896901582514</v>
+        <v>12.22730927794166</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.53883661955733</v>
+        <v>22.99630262681259</v>
       </c>
       <c r="P12">
-        <v>11.76620082464207</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.10437421600335</v>
+      </c>
+      <c r="R12">
+        <v>12.13107207712923</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.500625606906498</v>
+        <v>3.904944622281811</v>
       </c>
       <c r="D13">
-        <v>4.871056981497009</v>
+        <v>5.326963883289971</v>
       </c>
       <c r="E13">
-        <v>7.894272556750996</v>
+        <v>7.538381270225268</v>
       </c>
       <c r="F13">
-        <v>24.78993134885034</v>
+        <v>22.35799341445</v>
       </c>
       <c r="G13">
-        <v>33.75142396149406</v>
+        <v>31.80284572787075</v>
       </c>
       <c r="H13">
-        <v>5.740413857481314</v>
+        <v>5.693011262645479</v>
       </c>
       <c r="I13">
-        <v>4.515658175109304</v>
+        <v>4.284771159474648</v>
       </c>
       <c r="J13">
-        <v>10.4103211385268</v>
+        <v>9.164056469491353</v>
       </c>
       <c r="K13">
-        <v>18.87682245109202</v>
+        <v>16.55611134104038</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.56070825992051</v>
       </c>
       <c r="M13">
-        <v>23.86220334378455</v>
+        <v>11.70575865465512</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.47244019874818</v>
+        <v>22.88700242840099</v>
       </c>
       <c r="P13">
-        <v>11.92403415289233</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.0661841574665</v>
+      </c>
+      <c r="R13">
+        <v>12.3162496488167</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.564757158562505</v>
+        <v>3.994674583503608</v>
       </c>
       <c r="D14">
-        <v>4.95723948315709</v>
+        <v>5.395294488412854</v>
       </c>
       <c r="E14">
-        <v>8.292620669125546</v>
+        <v>7.845728191222262</v>
       </c>
       <c r="F14">
-        <v>23.89430408352271</v>
+        <v>21.64814570250514</v>
       </c>
       <c r="G14">
-        <v>32.2008388120747</v>
+        <v>30.12032072480715</v>
       </c>
       <c r="H14">
-        <v>6.638340803468358</v>
+        <v>6.601069175778558</v>
       </c>
       <c r="I14">
-        <v>4.457010733905986</v>
+        <v>4.239323673414495</v>
       </c>
       <c r="J14">
-        <v>10.11386904022905</v>
+        <v>9.120067252223846</v>
       </c>
       <c r="K14">
-        <v>18.25483620525307</v>
+        <v>16.10927681890897</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.29976196928277</v>
       </c>
       <c r="M14">
-        <v>23.58992970670118</v>
+        <v>11.27759524023516</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.92232976951041</v>
+        <v>22.67866621742225</v>
       </c>
       <c r="P14">
-        <v>12.06366879595216</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.54956864152564</v>
+      </c>
+      <c r="R14">
+        <v>12.45514434617061</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.550642911688309</v>
+        <v>3.990568152087257</v>
       </c>
       <c r="D15">
-        <v>4.973352984422609</v>
+        <v>5.399645899015823</v>
       </c>
       <c r="E15">
-        <v>8.5192555187691</v>
+        <v>8.068966594909249</v>
       </c>
       <c r="F15">
-        <v>23.6094283543866</v>
+        <v>21.44576087259763</v>
       </c>
       <c r="G15">
-        <v>31.71981930385713</v>
+        <v>29.52647049560716</v>
       </c>
       <c r="H15">
-        <v>6.843357143735745</v>
+        <v>6.808743941643056</v>
       </c>
       <c r="I15">
-        <v>4.42812171927495</v>
+        <v>4.21739691482819</v>
       </c>
       <c r="J15">
-        <v>10.0294627914029</v>
+        <v>9.156816653481826</v>
       </c>
       <c r="K15">
-        <v>18.05899073216887</v>
+        <v>15.98528631839328</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.24041615867298</v>
       </c>
       <c r="M15">
-        <v>23.44310562854039</v>
+        <v>11.1382781578414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.50274744395694</v>
+        <v>22.56119372283339</v>
       </c>
       <c r="P15">
-        <v>12.10681085144138</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.14405693125395</v>
+      </c>
+      <c r="R15">
+        <v>12.49015061593051</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.353451237751978</v>
+        <v>3.801636912814453</v>
       </c>
       <c r="D16">
-        <v>4.89777930041807</v>
+        <v>5.261375874536483</v>
       </c>
       <c r="E16">
-        <v>8.3183464865795</v>
+        <v>7.931451978220154</v>
       </c>
       <c r="F16">
-        <v>23.13296632946004</v>
+        <v>21.27914657426269</v>
       </c>
       <c r="G16">
-        <v>31.02088444599257</v>
+        <v>28.17028111724094</v>
       </c>
       <c r="H16">
-        <v>6.569740776008286</v>
+        <v>6.540388662301931</v>
       </c>
       <c r="I16">
-        <v>4.282638548795756</v>
+        <v>4.103047952121009</v>
       </c>
       <c r="J16">
-        <v>9.966086412364742</v>
+        <v>9.592763602947908</v>
       </c>
       <c r="K16">
-        <v>17.78287734774967</v>
+        <v>15.948355508761</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.35193671555533</v>
       </c>
       <c r="M16">
-        <v>22.70855617930112</v>
+        <v>10.89710800062632</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.21036479883062</v>
+        <v>21.94339441492802</v>
       </c>
       <c r="P16">
-        <v>12.15919314599201</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.9004791499012</v>
+      </c>
+      <c r="R16">
+        <v>12.47648477583981</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.160296437999087</v>
+        <v>3.607029157381753</v>
       </c>
       <c r="D17">
-        <v>4.792186050309595</v>
+        <v>5.123464280569894</v>
       </c>
       <c r="E17">
-        <v>7.751869000278451</v>
+        <v>7.436487746205657</v>
       </c>
       <c r="F17">
-        <v>23.26090769650059</v>
+        <v>21.51526057584547</v>
       </c>
       <c r="G17">
-        <v>31.34221127892854</v>
+        <v>28.16887852924552</v>
       </c>
       <c r="H17">
-        <v>5.832134587018096</v>
+        <v>5.802420343212694</v>
       </c>
       <c r="I17">
-        <v>4.201551368673569</v>
+        <v>4.038205298622893</v>
       </c>
       <c r="J17">
-        <v>10.07795833131878</v>
+        <v>9.901186625053931</v>
       </c>
       <c r="K17">
-        <v>17.91040683488258</v>
+        <v>16.14589781453233</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.57096439954264</v>
       </c>
       <c r="M17">
-        <v>22.28358724337607</v>
+        <v>10.93146021670537</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.84678144634072</v>
+        <v>21.56338303474628</v>
       </c>
       <c r="P17">
-        <v>12.12725045291942</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.55202536803856</v>
+      </c>
+      <c r="R17">
+        <v>12.4027955120793</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.982664190406106</v>
+        <v>3.409409930801356</v>
       </c>
       <c r="D18">
-        <v>4.650445692732944</v>
+        <v>4.963577059968697</v>
       </c>
       <c r="E18">
-        <v>7.866018006847521</v>
+        <v>7.687326136410984</v>
       </c>
       <c r="F18">
-        <v>23.94816748252892</v>
+        <v>22.18735921839584</v>
       </c>
       <c r="G18">
-        <v>32.62482137152653</v>
+        <v>29.21785629010194</v>
       </c>
       <c r="H18">
-        <v>4.662856362224583</v>
+        <v>4.626093782221155</v>
       </c>
       <c r="I18">
-        <v>4.168988214213029</v>
+        <v>4.010239661095318</v>
       </c>
       <c r="J18">
-        <v>10.36030568182448</v>
+        <v>10.23110569194361</v>
       </c>
       <c r="K18">
-        <v>18.42664083236266</v>
+        <v>16.61917567869352</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.94700888347378</v>
       </c>
       <c r="M18">
-        <v>22.09928155397096</v>
+        <v>11.24654308221374</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.36863833579831</v>
+        <v>21.37976657838106</v>
       </c>
       <c r="P18">
-        <v>12.03070152747867</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.0681685767062</v>
+      </c>
+      <c r="R18">
+        <v>12.2715000549613</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.782226448226803</v>
+        <v>3.203260236077679</v>
       </c>
       <c r="D19">
-        <v>4.507646481215156</v>
+        <v>4.810403034411146</v>
       </c>
       <c r="E19">
-        <v>9.872805200045335</v>
+        <v>9.856948838593222</v>
       </c>
       <c r="F19">
-        <v>24.95831763049576</v>
+        <v>23.10688273818906</v>
       </c>
       <c r="G19">
-        <v>34.44969679675788</v>
+        <v>30.83836683078029</v>
       </c>
       <c r="H19">
-        <v>3.422459978039146</v>
+        <v>3.368105896623239</v>
       </c>
       <c r="I19">
-        <v>4.184355290341838</v>
+        <v>4.022895595038544</v>
       </c>
       <c r="J19">
-        <v>10.73480096778872</v>
+        <v>10.57248320165821</v>
       </c>
       <c r="K19">
-        <v>19.14517337513814</v>
+        <v>17.22623279095831</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.38731676202829</v>
       </c>
       <c r="M19">
-        <v>22.10438273031928</v>
+        <v>11.71741182399754</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.46106752999436</v>
+        <v>21.35726851765398</v>
       </c>
       <c r="P19">
-        <v>11.9151576806844</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.14234864280613</v>
+      </c>
+      <c r="R19">
+        <v>12.1239096356286</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.644122012925723</v>
+        <v>3.077119929252599</v>
       </c>
       <c r="D20">
-        <v>4.350908264191099</v>
+        <v>4.661316419438789</v>
       </c>
       <c r="E20">
-        <v>14.92725954678652</v>
+        <v>15.05122758871935</v>
       </c>
       <c r="F20">
-        <v>26.90638710581321</v>
+        <v>24.76302701592391</v>
       </c>
       <c r="G20">
-        <v>37.84362041687579</v>
+        <v>34.08164145917002</v>
       </c>
       <c r="H20">
-        <v>2.739841261452684</v>
+        <v>2.647653365590362</v>
       </c>
       <c r="I20">
-        <v>4.328743996480116</v>
+        <v>4.139819908215803</v>
       </c>
       <c r="J20">
-        <v>11.38741117194331</v>
+        <v>10.96657853212387</v>
       </c>
       <c r="K20">
-        <v>20.49904009282722</v>
+        <v>18.27920369062283</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.04535764300868</v>
       </c>
       <c r="M20">
-        <v>22.67837248999394</v>
+        <v>12.68623601685509</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.97506999440633</v>
+        <v>21.82833085781131</v>
       </c>
       <c r="P20">
-        <v>11.72409221063173</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.60333307827184</v>
+      </c>
+      <c r="R20">
+        <v>11.90123648581983</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.923193004633171</v>
+        <v>3.343902467502437</v>
       </c>
       <c r="D21">
-        <v>4.413187400747539</v>
+        <v>4.828008575697699</v>
       </c>
       <c r="E21">
-        <v>16.1181035761687</v>
+        <v>16.2904553438903</v>
       </c>
       <c r="F21">
-        <v>28.24148922519928</v>
+        <v>25.43855182292923</v>
       </c>
       <c r="G21">
-        <v>39.92579612981714</v>
+        <v>37.46634409348364</v>
       </c>
       <c r="H21">
-        <v>3.045114574739683</v>
+        <v>2.924305517066437</v>
       </c>
       <c r="I21">
-        <v>4.612824065627003</v>
+        <v>4.362429922661135</v>
       </c>
       <c r="J21">
-        <v>11.70539184564682</v>
+        <v>10.11391110805248</v>
       </c>
       <c r="K21">
-        <v>21.35244165640728</v>
+        <v>18.60086461338838</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.99212370400239</v>
       </c>
       <c r="M21">
-        <v>24.05075278510151</v>
+        <v>13.3303335551434</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.39984509019323</v>
+        <v>22.95756859124747</v>
       </c>
       <c r="P21">
-        <v>11.52465833791937</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.91828147208691</v>
+      </c>
+      <c r="R21">
+        <v>11.77546518875871</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.139809070422978</v>
+        <v>3.542990230062611</v>
       </c>
       <c r="D22">
-        <v>4.456402202814115</v>
+        <v>4.943203461456145</v>
       </c>
       <c r="E22">
-        <v>16.62020717183523</v>
+        <v>16.82222750390331</v>
       </c>
       <c r="F22">
-        <v>29.06317914106544</v>
+        <v>25.82086408894306</v>
       </c>
       <c r="G22">
-        <v>41.19367852338869</v>
+        <v>39.66779503967371</v>
       </c>
       <c r="H22">
-        <v>3.22945548484934</v>
+        <v>3.090262501982901</v>
       </c>
       <c r="I22">
-        <v>4.792061209549557</v>
+        <v>4.501123325878588</v>
       </c>
       <c r="J22">
-        <v>11.90144681622159</v>
+        <v>9.516664202168206</v>
       </c>
       <c r="K22">
-        <v>21.88945800372096</v>
+        <v>18.78495668388786</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.93976055372242</v>
       </c>
       <c r="M22">
-        <v>24.91525826590082</v>
+        <v>13.72836246419227</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.15688317513588</v>
+        <v>23.66293281873307</v>
       </c>
       <c r="P22">
-        <v>11.3984993713303</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.60310769140251</v>
+      </c>
+      <c r="R22">
+        <v>11.70551071565018</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.056975328743841</v>
+        <v>3.447503837612565</v>
       </c>
       <c r="D23">
-        <v>4.429443703317511</v>
+        <v>4.870570935384912</v>
       </c>
       <c r="E23">
-        <v>16.35046857547323</v>
+        <v>16.5310810478925</v>
       </c>
       <c r="F23">
-        <v>28.66268280561555</v>
+        <v>25.69933692932546</v>
       </c>
       <c r="G23">
-        <v>40.58481173963197</v>
+        <v>38.37449177278799</v>
       </c>
       <c r="H23">
-        <v>3.132353262142786</v>
+        <v>3.003664072851943</v>
       </c>
       <c r="I23">
-        <v>4.696318673660414</v>
+        <v>4.426776658365895</v>
       </c>
       <c r="J23">
-        <v>11.81044235067579</v>
+        <v>9.958188565200823</v>
       </c>
       <c r="K23">
-        <v>21.64314935390697</v>
+        <v>18.75517196793935</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.01499217558638</v>
       </c>
       <c r="M23">
-        <v>24.47056308792864</v>
+        <v>13.57136219241379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.76164152069731</v>
+        <v>23.31844913672341</v>
       </c>
       <c r="P23">
-        <v>11.46391937453486</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.25351681597583</v>
+      </c>
+      <c r="R23">
+        <v>11.73540798801356</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.676289018447908</v>
+        <v>3.088446184281438</v>
       </c>
       <c r="D24">
-        <v>4.331109141173528</v>
+        <v>4.637714988549814</v>
       </c>
       <c r="E24">
-        <v>15.29901170520586</v>
+        <v>15.42926553601392</v>
       </c>
       <c r="F24">
-        <v>27.06108179145194</v>
+        <v>24.90909759451036</v>
       </c>
       <c r="G24">
-        <v>38.12484710051338</v>
+        <v>34.32836214992663</v>
       </c>
       <c r="H24">
-        <v>2.756369157943016</v>
+        <v>2.663681790540642</v>
       </c>
       <c r="I24">
-        <v>4.328051627464599</v>
+        <v>4.136751682258359</v>
       </c>
       <c r="J24">
-        <v>11.44693181317699</v>
+        <v>11.02763688629083</v>
       </c>
       <c r="K24">
-        <v>20.63212082765993</v>
+        <v>18.39904002626042</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.13445992927769</v>
       </c>
       <c r="M24">
-        <v>22.68866879701346</v>
+        <v>12.77682250444273</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.19365524277222</v>
+        <v>21.83605328419481</v>
       </c>
       <c r="P24">
-        <v>11.71694574140008</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.82024047043606</v>
+      </c>
+      <c r="R24">
+        <v>11.88753821397406</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.230669773601059</v>
+        <v>2.75411458285413</v>
       </c>
       <c r="D25">
-        <v>4.219144298679788</v>
+        <v>4.448000676809293</v>
       </c>
       <c r="E25">
-        <v>14.0893271177337</v>
+        <v>14.22282913910649</v>
       </c>
       <c r="F25">
-        <v>25.28379687977873</v>
+        <v>23.4971135925466</v>
       </c>
       <c r="G25">
-        <v>35.37292920209727</v>
+        <v>31.92223748023873</v>
       </c>
       <c r="H25">
-        <v>2.335639800429519</v>
+        <v>2.271532077658499</v>
       </c>
       <c r="I25">
-        <v>3.917640841543844</v>
+        <v>3.796914650426379</v>
       </c>
       <c r="J25">
-        <v>11.06289085980081</v>
+        <v>10.8496505188005</v>
       </c>
       <c r="K25">
-        <v>19.51438195884308</v>
+        <v>17.64583972250527</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.00252957884333</v>
       </c>
       <c r="M25">
-        <v>20.601046843495</v>
+        <v>11.62068153382806</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.37114827194972</v>
+        <v>19.89620281327425</v>
       </c>
       <c r="P25">
-        <v>11.99479423963646</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.0610723128003</v>
+      </c>
+      <c r="R25">
+        <v>12.1024330223671</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
